--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi\Documents\adversarial_nli_gpt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B342704-1345-473F-B222-00D89813E996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E2D9B1-4E79-4EE0-833A-CE37EFF26129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1030" yWindow="740" windowWidth="19200" windowHeight="10060" activeTab="3" xr2:uid="{0C0D5CA4-FFEB-41F7-9EFC-723874272852}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0C0D5CA4-FFEB-41F7-9EFC-723874272852}"/>
   </bookViews>
   <sheets>
     <sheet name="In-Distribution (SNLI)" sheetId="5" r:id="rId1"/>
@@ -167,11 +167,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -241,7 +241,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,13 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -264,30 +261,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -612,144 +613,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11041D99-3637-46BE-9620-CCCC7C3A1026}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.36328125" customWidth="1"/>
+    <col min="6" max="7" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.36328125" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>85.6</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>79.5</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>ROUND(F4,1)&amp;"_"&amp;ROUND(I4,1)</f>
         <v>83.9_0.1</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f>ROUND(G4,2)&amp;"_"&amp;ROUND(J4,2)</f>
         <v>0.76_0</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <f>AVERAGE(83.8,84.1,84,83.9,83.9)</f>
         <v>83.939999999999984</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>AVERAGE(0.76, 0.76, 0.76, 0.76, 0.76)</f>
         <v>0.76</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <f>_xlfn.STDEV.S(83.8,84.1,84,83.9,83.9)</f>
         <v>0.11401754250991168</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f>_xlfn.STDEV.S(0.76, 0.76,0.76, 0.76, 0.76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>89.4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>86.4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f>ROUND(F7,1)&amp;"_"&amp;ROUND(G7,1)</f>
         <v>0_0</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f>ROUND(G7,1)&amp;"_"&amp;ROUND(H7,1)</f>
         <v>0_0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -768,26 +777,38 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -797,465 +818,466 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>50</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>50</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>50</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>37</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>42</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>52.800000000000004</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>44.3</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>31.1</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>48.699999999999996</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>56.000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>50</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>50</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>49.7</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>38</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>41.699999999999996</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>55.7</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>44</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>16.7</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <v>45.2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>49.6</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>ROUND(C6,1)&amp;"_"&amp;ROUND(C7,1)</f>
+      <c r="C5" s="24" t="str">
+        <f t="shared" ref="C5:H5" si="0">ROUND(C6,1)&amp;"_"&amp;ROUND(C7,1)</f>
         <v>50_0</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f>ROUND(D6,1)&amp;"_"&amp;ROUND(D7,1)</f>
+      <c r="D5" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>50_0</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f>ROUND(E6,1)&amp;"_"&amp;ROUND(E7,1)</f>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>50_0.1</v>
       </c>
-      <c r="F5" s="5" t="str">
-        <f>ROUND(F6,1)&amp;"_"&amp;ROUND(F7,1)</f>
+      <c r="F5" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>39.4_2.4</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f>ROUND(G6,1)&amp;"_"&amp;ROUND(G7,1)</f>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>41.4_1.7</v>
       </c>
-      <c r="H5" s="5" t="str">
-        <f>ROUND(H6,1)&amp;"_"&amp;ROUND(H7,1)</f>
+      <c r="H5" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>56_3.2</v>
       </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:L5" si="0">ROUND(I6,1)&amp;"_"&amp;ROUND(I7,1)</f>
+      <c r="I5" s="24" t="str">
+        <f t="shared" ref="I5:L5" si="1">ROUND(I6,1)&amp;"_"&amp;ROUND(I7,1)</f>
         <v>44.4_1.4</v>
       </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>25.2_4</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="K5" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>49.4_1.1</v>
       </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>54.9_0.7</v>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>54.5_0.8</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="22">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20">
         <f>AVERAGE(50,50,50,50,50)</f>
         <v>50</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <f>AVERAGE(50,50.1,50,50,50)</f>
         <v>50.019999999999996</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <f>AVERAGE(50,49.8,50,50,50)</f>
         <v>49.96</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <f>AVERAGE(43,37,37.3,39.8,40.1)</f>
         <v>39.44</v>
       </c>
-      <c r="G6" s="17">
-        <f>AVERAGE(42.3,42.6,42.3,41.48,38.5)</f>
-        <v>41.436</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="15">
+        <f>AVERAGE(42.3,42.6,42.3,41.5,38.5)</f>
+        <v>41.44</v>
+      </c>
+      <c r="H6" s="20">
         <f>AVERAGE(56.4,57.1,56.6,59.4,50.7)</f>
         <v>56.04</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <f>AVERAGE(45.1,44.6,42.7,46.2,43.5)</f>
         <v>44.42</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f>AVERAGE(21.9,29.9,25.2,20.7,28.5)</f>
         <v>25.240000000000002</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <f>AVERAGE(50.6,50.1,48.4,49.8,48.2)</f>
         <v>49.419999999999995</v>
       </c>
-      <c r="L6" s="17">
-        <f>AVERAGE(55.5,55.6,54.4,55,54)</f>
-        <v>54.9</v>
+      <c r="L6" s="15">
+        <f>AVERAGE(55.5,53.6,54.4,55,54)</f>
+        <v>54.5</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="18">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="16">
         <f>_xlfn.STDEV.S(50,50,50,50,50)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>_xlfn.STDEV.S(50,50.1,50,50,50)</f>
         <v>4.4721359549996433E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f>_xlfn.STDEV.S(50,49.8,50,50,50)</f>
         <v>8.9442719099992865E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f>_xlfn.STDEV.S(43,37,37.3,39.8,40.1)</f>
         <v>2.4378269011560283</v>
       </c>
-      <c r="G7" s="18">
-        <f>_xlfn.STDEV.S(42.3,42.6,42.3,41.48,38.5)</f>
-        <v>1.6933635167913588</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="16">
+        <f>_xlfn.STDEV.S(42.3,42.6,42.3,41.5,38.5)</f>
+        <v>1.6935170504013235</v>
+      </c>
+      <c r="H7" s="16">
         <f>_xlfn.STDEV.S(56.4,57.1,56.6,59.4,50.7)</f>
         <v>3.216053482142359</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <f>_xlfn.STDEV.S(45.1,44.6,42.7,46.2,43.5)</f>
         <v>1.3663820841916805</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <f>_xlfn.STDEV.S(21.9,29.9,25.2,20.7,28.5)</f>
         <v>4.0034984700883687</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <f>_xlfn.STDEV.S(50.6,50.1,48.4,49.8,48.2)</f>
         <v>1.0639548862616308</v>
       </c>
-      <c r="L7" s="18">
-        <f>_xlfn.STDEV.S(55.5,55.6,54.4,55,54)</f>
-        <v>0.69282032302755148</v>
+      <c r="L7" s="16">
+        <f>_xlfn.STDEV.S(55.5,53.6,54.4,55,54)</f>
+        <v>0.76157731058639044</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>53.300000000000004</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>50.6</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>50.2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>43</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>46.1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>61.8</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>53.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>42.1</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <v>58.099999999999994</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>64.7</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>50</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>49.9</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>51.300000000000004</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>38.700000000000003</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>43.4</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>59</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>49.2</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>28.799999999999997</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>51.1</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <v>57.4</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f>ROUND(C11,1)&amp;"_"&amp;ROUND(C12,1)</f>
+      <c r="C10" s="4" t="str">
+        <f t="shared" ref="C10:H10" si="2">ROUND(C11,1)&amp;"_"&amp;ROUND(C12,1)</f>
         <v>0_0</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f>ROUND(D11,1)&amp;"_"&amp;ROUND(D12,1)</f>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0_0</v>
       </c>
-      <c r="E10" s="5" t="str">
-        <f>ROUND(E11,1)&amp;"_"&amp;ROUND(E12,1)</f>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0_0</v>
       </c>
-      <c r="F10" s="5" t="str">
-        <f>ROUND(F11,1)&amp;"_"&amp;ROUND(F12,1)</f>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0_0</v>
       </c>
-      <c r="G10" s="5" t="str">
-        <f>ROUND(G11,1)&amp;"_"&amp;ROUND(G12,1)</f>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0_0</v>
       </c>
-      <c r="H10" s="5" t="str">
-        <f>ROUND(H11,1)&amp;"_"&amp;ROUND(H12,1)</f>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0_0</v>
       </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" ref="I10" si="1">ROUND(I11,1)&amp;"_"&amp;ROUND(I12,1)</f>
+      <c r="I10" s="4" t="str">
+        <f t="shared" ref="I10" si="3">ROUND(I11,1)&amp;"_"&amp;ROUND(I12,1)</f>
         <v>0_0</v>
       </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10" si="2">ROUND(J11,1)&amp;"_"&amp;ROUND(J12,1)</f>
+      <c r="J10" s="4" t="str">
+        <f t="shared" ref="J10" si="4">ROUND(J11,1)&amp;"_"&amp;ROUND(J12,1)</f>
         <v>0_0</v>
       </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" ref="K10" si="3">ROUND(K11,1)&amp;"_"&amp;ROUND(K12,1)</f>
+      <c r="K10" s="4" t="str">
+        <f t="shared" ref="K10" si="5">ROUND(K11,1)&amp;"_"&amp;ROUND(K12,1)</f>
         <v>0_0</v>
       </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" ref="L10" si="4">ROUND(L11,1)&amp;"_"&amp;ROUND(L12,1)</f>
+      <c r="L10" s="4" t="str">
+        <f t="shared" ref="L10" si="6">ROUND(L11,1)&amp;"_"&amp;ROUND(L12,1)</f>
         <v>0_0</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1267,459 +1289,467 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>0.01</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>-0.01</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.06</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>0.12</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.19</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.15</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>0.25</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>-0.01</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-0.02</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>0.1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.11</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.22</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.11</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <v>-0.03</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0.2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>ROUND(C6,2)&amp;"_"&amp;ROUND(C7,2)</f>
-        <v>0.01_0.01</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>0_0</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:L5" si="0">ROUND(D6,2)&amp;"_"&amp;ROUND(D7,2)</f>
-        <v>0_0.01</v>
-      </c>
-      <c r="E5" s="5" t="str">
+        <v>0_0.02</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-0.01_0.01</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.1_0.02</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.12_0.03</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.24_0.05</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0.13_0.01</v>
-      </c>
-      <c r="J5" s="5" t="str">
+        <v>0.13_0.02</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-0.15_0.03</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.25_0.01</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.32_0.01</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="23">
-        <f>AVERAGE(0,0.03,0,0,0)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="23">
-        <f>AVERAGE(-0.01,0.01,-0.01,0,0)</f>
-        <v>-2E-3</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21">
+        <f>AVERAGE(0,0.01,0,0,0)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D6" s="21">
+        <f>AVERAGE(-0.01,0.03,-0.01,0,0)</f>
+        <v>1.9999999999999992E-3</v>
+      </c>
+      <c r="E6" s="21">
         <f>AVERAGE(-0.01,-0.03,0,-0.01,0)</f>
         <v>-0.01</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <f>AVERAGE(0.13,0.08,0.08,0.09,0.12)</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <f>AVERAGE(0.14,0.13,0.13,0.11,0.07)</f>
         <v>0.11600000000000002</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f>AVERAGE(0.24,0.27,0.25,0.29,0.17)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="I6" s="9">
-        <f>AVERAGE(0.13,0.14,0.11,0.14,0.12)</f>
-        <v>0.128</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="8">
+        <f>AVERAGE(0.13,0.14,0.11,0.15,0.12)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="8">
         <f>AVERAGE(-0.18,-0.16,-0.12,-0.11,-0.18)</f>
         <v>-0.15</v>
       </c>
-      <c r="K6" s="23">
-        <f>AVERAGE(0.26,0.26,0.25,0.25,0.23)</f>
-        <v>0.25</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="21">
+        <f>AVERAGE(0.26,0.26,0.25,0.25,0.24)</f>
+        <v>0.252</v>
+      </c>
+      <c r="L6" s="8">
         <f>AVERAGE(0.33,0.31,0.32,0.33,0.32)</f>
         <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="19">
-        <f>STDEV(0,0.03,0,0,0)</f>
-        <v>1.3416407864998738E-2</v>
-      </c>
-      <c r="D7" s="19">
-        <f>STDEV(-0.01,0.01,-0.01,0,0)</f>
-        <v>8.3666002653407564E-3</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="17">
+        <f>STDEV(0,0.01,0,0,0)</f>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="D7" s="17">
+        <f>STDEV(-0.01,0.03,-0.01,0,0)</f>
+        <v>1.6431676725154984E-2</v>
+      </c>
+      <c r="E7" s="17">
         <f>STDEV(-0.01,-0.03,0,-0.01,0)</f>
         <v>1.2247448713915889E-2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <f>_xlfn.STDEV.S(0.13,0.08,0.08,0.09,0.12)</f>
         <v>2.3452078799117114E-2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <f>_xlfn.STDEV.S(0.14,0.13,0.13,0.11,0.07)</f>
         <v>2.7928480087537809E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>_xlfn.STDEV.S(0.24,0.27,0.25,0.29,0.17)</f>
         <v>4.5607017003965501E-2</v>
       </c>
-      <c r="I7" s="19">
-        <f>_xlfn.STDEV.S(0.13,0.14,0.11,0.14,0.12)</f>
-        <v>1.3038404810405304E-2</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="I7" s="17">
+        <f>_xlfn.STDEV.S(0.13,0.14,0.11,0.15,0.12)</f>
+        <v>1.5811388300841795E-2</v>
+      </c>
+      <c r="J7" s="17">
         <f>_xlfn.STDEV.S(-0.18,-0.16,-0.12,-0.11,-0.18)</f>
         <v>3.316624790355395E-2</v>
       </c>
-      <c r="K7" s="19">
-        <f>_xlfn.STDEV.S(0.26,0.26,0.25,0.25,0.23)</f>
-        <v>1.2247448713915889E-2</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="K7" s="17">
+        <f>_xlfn.STDEV.S(0.26,0.26,0.25,0.25,0.24)</f>
+        <v>8.3666002653407633E-3</v>
+      </c>
+      <c r="L7" s="17">
         <f>_xlfn.STDEV.S(0.33,0.31,0.32,0.33,0.32)</f>
         <v>8.3666002653407633E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.03</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.19</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>0.34</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>-0.11</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>0.38</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.01</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>-0.03</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.11</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0.11</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.21</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>-0.1</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>0.3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1729,294 +1759,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A5830-F05C-4E33-8DEA-0D543C9BBC8A}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>32.14</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>32.300000000000004</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>34.9</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>-0.03</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>-0.02</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>31.3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>33.300000000000004</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>34.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>-0.04</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>ROUND(C6,1)&amp;"_"&amp;ROUND(C7,1)</f>
-        <v>32.6_0.9</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>31.8_1</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:E5" si="0">ROUND(D6,1)&amp;"_"&amp;ROUND(D7,1)</f>
-        <v>31.9_0.5</v>
-      </c>
-      <c r="E5" s="5" t="str">
+        <v>31.4_0.6</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>34.3_0.5</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f>ROUND(F6,2)&amp;"_"&amp;ROUND(F7,2)</f>
-        <v>-0.03_0.02</v>
-      </c>
-      <c r="G5" s="5" t="str">
+        <v>-0.03_0.01</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f t="shared" ref="G5:H5" si="1">ROUND(G6,2)&amp;"_"&amp;ROUND(G7,2)</f>
         <v>-0.03_0.01</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>0.01_0.01</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="20">
-        <f>AVERAGE(31.9,33.5,33.2,33.1,31.5)</f>
-        <v>32.64</v>
-      </c>
-      <c r="D6" s="16">
-        <f>AVERAGE(32,32.5,31.3,31.7)</f>
-        <v>31.875</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18">
+        <f>AVERAGE(31.9,33.5,31.2,31.1,31.5)</f>
+        <v>31.840000000000003</v>
+      </c>
+      <c r="D6" s="14">
+        <f>AVERAGE(32,30.5,31.3,31.7,31.6)</f>
+        <v>31.419999999999998</v>
+      </c>
+      <c r="E6" s="14">
         <f>AVERAGE(34.4,34.4,34,35.1,33.8)</f>
         <v>34.339999999999996</v>
       </c>
-      <c r="F6" s="21">
-        <f>AVERAGE(-0.02,0,-0.04,-0.04,-0.03)</f>
-        <v>-2.6000000000000002E-2</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="19">
+        <f>AVERAGE(-0.02,-0.01,-0.04,-0.04,-0.03)</f>
+        <v>-2.8000000000000004E-2</v>
+      </c>
+      <c r="G6" s="7">
         <f>AVERAGE(-0.02,-0.04,-0.03,-0.03,-0.03)</f>
         <v>-0.03</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f>AVERAGE(0.01,0.01,0.01,0.03,0)</f>
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="18">
-        <f>_xlfn.STDEV.S(31.9,33.5,33.2,33.1,31.5)</f>
-        <v>0.88204308284799882</v>
-      </c>
-      <c r="D7" s="18">
-        <f>_xlfn.STDEV.S(32,32.5,31.3,31.7)</f>
-        <v>0.50579969684978376</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="16">
+        <f>_xlfn.STDEV.S(31.9,33.5,31.2,31.1,31.5)</f>
+        <v>0.97877474425937239</v>
+      </c>
+      <c r="D7" s="16">
+        <f>_xlfn.STDEV.S(32,30.5,31.3,31.7,31.6)</f>
+        <v>0.5718391382198319</v>
+      </c>
+      <c r="E7" s="16">
         <f>_xlfn.STDEV.S(34.4,34.4,34,35.1,33.8)</f>
         <v>0.49799598391955052</v>
       </c>
-      <c r="F7" s="19">
-        <f>_xlfn.STDEV.S(-0.02,0,-0.04,-0.04,-0.03)</f>
-        <v>1.6733200530681506E-2</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F7" s="17">
+        <f>_xlfn.STDEV.S(-0.02,-0.01,-0.04,-0.04,-0.03)</f>
+        <v>1.303840481040529E-2</v>
+      </c>
+      <c r="G7" s="17">
         <f>_xlfn.STDEV.S(-0.02,-0.04,-0.03,-0.03,-0.03)</f>
         <v>7.0710678118654693E-3</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>_xlfn.STDEV.S(0.01,0.01,0.01,0.03,0)</f>
         <v>1.0954451150103324E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>32.4</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>30.14</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>-0.01</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>-0.05</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>29.099999999999998</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>31.7</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>34.799999999999997</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>-0.06</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>-0.03</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2044,27 +2079,27 @@
     <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2078,14 +2113,14 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>446</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="F2" s="6">
-        <f>INT(D2/E2*(1-E2))</f>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F10" si="0">INT(D2/E2*(1-E2))</f>
         <v>16072</v>
       </c>
     </row>
@@ -2099,14 +2134,14 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>23</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="F3" s="6">
-        <f>INT(D3/E3*(1-E3))</f>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
         <v>977</v>
       </c>
     </row>
@@ -2120,14 +2155,14 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>944</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F4" s="6">
-        <f>INT(D4/E4*(1-E4))</f>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>44008</v>
       </c>
     </row>
@@ -2141,14 +2176,14 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="6">
-        <f>INT(D5/E5*(1-E5))</f>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>982</v>
       </c>
     </row>
@@ -2162,14 +2197,14 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>7468</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.08</v>
       </c>
-      <c r="F6" s="6">
-        <f>INT(D6/E6*(1-E6))</f>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>85882</v>
       </c>
     </row>
@@ -2183,14 +2218,14 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>90</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F7" s="6">
-        <f>INT(D7/E7*(1-E7))</f>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>1021</v>
       </c>
     </row>
@@ -2204,14 +2239,14 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>396</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F8" s="6">
-        <f>INT(D8/E8*(1-E8))</f>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>22898</v>
       </c>
     </row>
@@ -2225,14 +2260,14 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1060</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="6">
-        <f>INT(D9/E9*(1-E9))</f>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>263940</v>
       </c>
     </row>
@@ -2246,14 +2281,14 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1070</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="6">
-        <f>INT(D10/E10*(1-E10))</f>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>355596</v>
       </c>
     </row>
@@ -2264,6 +2299,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5D9DB877A07CC41A0C1C0E1F0AD9513" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cb8589f9e7692a862949d36515caa36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b9670051-61f4-46ca-b7eb-25470a300aac" xmlns:ns4="051aaf90-6e41-44c5-91e1-87583fba0e7a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d0282e6a0397b33362a2794104166d5" ns3:_="" ns4:_="">
     <xsd:import namespace="b9670051-61f4-46ca-b7eb-25470a300aac"/>
@@ -2434,15 +2478,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2450,6 +2485,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E6712-CF87-4A66-BD83-30D60A0BF6C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B22236C-FB4F-4110-95D1-88B383F7F709}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2464,14 +2507,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E6712-CF87-4A66-BD83-30D60A0BF6C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi\Documents\adversarial_nli_gpt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E2D9B1-4E79-4EE0-833A-CE37EFF26129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4BD64-B5A5-497A-B4BA-ADC5A78FC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0C0D5CA4-FFEB-41F7-9EFC-723874272852}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0C0D5CA4-FFEB-41F7-9EFC-723874272852}"/>
   </bookViews>
   <sheets>
-    <sheet name="In-Distribution (SNLI)" sheetId="5" r:id="rId1"/>
-    <sheet name="Acc - Out-of-Dist" sheetId="2" r:id="rId2"/>
-    <sheet name="R_K - Out-of-Dist" sheetId="3" r:id="rId3"/>
-    <sheet name="ANLI" sheetId="4" r:id="rId4"/>
+    <sheet name="0S In-Distribution (SNLI)" sheetId="5" r:id="rId1"/>
+    <sheet name="0S Acc - Out-of-Dist" sheetId="2" r:id="rId2"/>
+    <sheet name="0S R_K - Out-of-Dist" sheetId="3" r:id="rId3"/>
+    <sheet name="FT ANLI" sheetId="4" r:id="rId4"/>
     <sheet name="Exclusions (128)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>HANS (RTE Task)</t>
   </si>
@@ -159,6 +159,108 @@
   </si>
   <si>
     <t># Instances Remaining</t>
+  </si>
+  <si>
+    <t>88.42.2</t>
+  </si>
+  <si>
+    <t>28.23.4</t>
+  </si>
+  <si>
+    <t>21.77.1</t>
+  </si>
+  <si>
+    <t>51.81.6</t>
+  </si>
+  <si>
+    <t>57.81.7</t>
+  </si>
+  <si>
+    <t>72.61.3</t>
+  </si>
+  <si>
+    <t>65.71.9</t>
+  </si>
+  <si>
+    <t>77.92.5</t>
+  </si>
+  <si>
+    <t>73.52.9</t>
+  </si>
+  <si>
+    <t>79.80.8</t>
+  </si>
+  <si>
+    <t>56.614.7</t>
+  </si>
+  <si>
+    <t>19.65.6</t>
+  </si>
+  <si>
+    <t>13.82.9</t>
+  </si>
+  <si>
+    <t>56.40.8</t>
+  </si>
+  <si>
+    <t>53.91.5</t>
+  </si>
+  <si>
+    <t>71.21.1</t>
+  </si>
+  <si>
+    <t>65.61.7</t>
+  </si>
+  <si>
+    <t>68.43.0</t>
+  </si>
+  <si>
+    <t>73.03.0</t>
+  </si>
+  <si>
+    <t>78.60.4</t>
+  </si>
+  <si>
+    <t>94.13.5</t>
+  </si>
+  <si>
+    <t>46.36.0</t>
+  </si>
+  <si>
+    <t>38.515.2</t>
+  </si>
+  <si>
+    <t>53.91.6</t>
+  </si>
+  <si>
+    <t>58.71.2</t>
+  </si>
+  <si>
+    <t>69.90.9</t>
+  </si>
+  <si>
+    <t>66.51.7</t>
+  </si>
+  <si>
+    <t>79.11.0</t>
+  </si>
+  <si>
+    <t>72.01.8</t>
+  </si>
+  <si>
+    <t>79.50.4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Latex</t>
+  </si>
+  <si>
+    <t>Bold Booleans</t>
+  </si>
+  <si>
+    <t>Formatted</t>
   </si>
 </sst>
 </file>
@@ -285,10 +387,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -611,35 +715,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11041D99-3637-46BE-9620-CCCC7C3A1026}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.36328125" customWidth="1"/>
-    <col min="6" max="7" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.36328125" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.36328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.36328125" customWidth="1"/>
+    <col min="18" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="I1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="O1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -651,9 +772,33 @@
       <c r="D2" s="19">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="I2" s="18" t="str">
+        <f>FIXED(C2,1)</f>
+        <v>85.6</v>
+      </c>
+      <c r="J2" s="19" t="str">
+        <f>FIXED(D2,2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="O2" t="b">
+        <f>C2=MAX($C$2,$C$3,$C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <f>D2=MAX($D$2,$D$3,$D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(O2,"$\mathbf{"&amp;I2&amp;"}$","$"&amp;I2&amp;"$")</f>
+        <v>$\mathbf{85.6}$</v>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(P2,"$\mathbf{"&amp;J2&amp;"}$","$"&amp;J2&amp;"$")</f>
+        <v>$\mathbf{0.78}$</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
@@ -663,39 +808,87 @@
       <c r="D3" s="7">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="I3" s="14" t="str">
+        <f t="shared" ref="I3:I10" si="0">FIXED(C3,1)</f>
+        <v>79.5</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f>FIXED(D3,2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="O3" t="b">
+        <f>C3=MAX($C$2,$C$3,$C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <f>D3=MAX($D$2,$D$3,$D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(O3,"$\mathbf{"&amp;I3&amp;"}$","$"&amp;I3&amp;"$")</f>
+        <v>$79.5$</v>
+      </c>
+      <c r="S3" t="str">
+        <f>IF(P3,"$\mathbf{"&amp;J3&amp;"}$","$"&amp;J3&amp;"$")</f>
+        <v>$0.69$</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f>ROUND(F4,1)&amp;"_"&amp;ROUND(I4,1)</f>
-        <v>83.9_0.1</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>ROUND(G4,2)&amp;"_"&amp;ROUND(J4,2)</f>
-        <v>0.76_0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="C4" s="14">
         <f>AVERAGE(83.8,84.1,84,83.9,83.9)</f>
         <v>83.939999999999984</v>
       </c>
-      <c r="G4" s="7">
+      <c r="D4" s="7">
         <f>AVERAGE(0.76, 0.76, 0.76, 0.76, 0.76)</f>
         <v>0.76</v>
       </c>
-      <c r="I4" s="16">
+      <c r="F4" s="16">
         <f>_xlfn.STDEV.S(83.8,84.1,84,83.9,83.9)</f>
         <v>0.11401754250991168</v>
       </c>
-      <c r="J4" s="13">
+      <c r="G4" s="13">
         <f>_xlfn.STDEV.S(0.76, 0.76,0.76, 0.76, 0.76)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="I4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>83.9</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>FIXED(D4,2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="L4" s="14" t="str">
+        <f t="shared" ref="L4" si="1">FIXED(F4,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f>FIXED(G4,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="O4" t="b">
+        <f>AND(NOT(O2),NOT(O3))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <f>AND(NOT(P2),NOT(P3))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(O4,"$\mathbf{"&amp;ROUND(I4,1)&amp;"}","$"&amp;ROUND(I4,1))&amp;"_{"&amp;ROUND(L4,1)&amp;"}$"</f>
+        <v>$83.9_{0.1}$</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(P4,"$\mathbf{"&amp;ROUND(J4,1)&amp;"}","$"&amp;ROUND(J4,1))&amp;"_{"&amp;ROUND(M4,1)&amp;"}$"</f>
+        <v>$0.8_{0}$</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -707,9 +900,33 @@
       <c r="D5" s="7">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="I5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>89.4</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>FIXED(D5,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="O5" t="b">
+        <f>C5=MAX($C$5,$C$6,$F$6)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <f>D5=MAX($D$5,$D$6,$G$7)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(O5,"$\mathbf{"&amp;I5&amp;"}$","$"&amp;I5&amp;"$")</f>
+        <v>$\mathbf{89.4}$</v>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(P5,"$\mathbf{"&amp;J5&amp;"}$","$"&amp;J5&amp;"$")</f>
+        <v>$\mathbf{0.84}$</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -719,46 +936,175 @@
       <c r="D6" s="7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="I6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>86.4</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>FIXED(D6,2)</f>
+        <v>0.80</v>
+      </c>
+      <c r="O6" t="b">
+        <f>C6=MAX($C$5,$C$6,$F$6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <f>D6=MAX($D$5,$D$6,$G$7)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(O6,"$\mathbf{"&amp;I6&amp;"}$","$"&amp;I6&amp;"$")</f>
+        <v>$86.4$</v>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(P6,"$\mathbf{"&amp;J6&amp;"}$","$"&amp;J6&amp;"$")</f>
+        <v>$0.80$</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>ROUND(F7,1)&amp;"_"&amp;ROUND(G7,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>ROUND(G7,1)&amp;"_"&amp;ROUND(H7,1)</f>
-        <v>0_0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>FIXED(D7,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="L7" s="14" t="str">
+        <f t="shared" ref="L7" si="2">FIXED(F7,1)</f>
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f>FIXED(G7,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="O7" t="b">
+        <f>AND(NOT(O5),NOT(O6))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <f>AND(NOT(P5),NOT(P6))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(O7,"$\mathbf{"&amp;ROUND(I7,1)&amp;"}","$"&amp;ROUND(I7,1))&amp;"_{"&amp;ROUND(L7,1)&amp;"}$"</f>
+        <v>$0_{0}$</v>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(P7,"$\mathbf{"&amp;ROUND(J7,1)&amp;"}","$"&amp;ROUND(J7,1))&amp;"_{"&amp;ROUND(M7,1)&amp;"}$"</f>
+        <v>$0_{0}$</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="C8" s="14">
+        <v>92.6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>92.6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="b">
+        <f>C8=MAX($C$8:$C$10)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <f>1=0</f>
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ref="R8:S10" si="3">IF(O8,"$\mathbf{"&amp;I8&amp;"}$","$"&amp;I8&amp;"$")</f>
+        <v>$\mathbf{92.6}$</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="C9" s="14">
+        <v>88.3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>88.3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="b">
+        <f>C9=MAX($C$8:$C$10)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <f>1=0</f>
+        <v>0</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="3"/>
+        <v>$88.3$</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="14">
+        <v>62.6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>62.6</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="b">
+        <f>C10=MAX($C$8:$C$10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <f>1=0</f>
+        <v>0</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="3"/>
+        <v>$62.6$</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -767,48 +1113,44 @@
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF10F2-0F11-4ACD-BE1E-F02856DBF6BD}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -850,7 +1192,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -888,7 +1230,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
@@ -925,356 +1267,1949 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24" t="str">
-        <f t="shared" ref="C5:H5" si="0">ROUND(C6,1)&amp;"_"&amp;ROUND(C7,1)</f>
-        <v>50_0</v>
-      </c>
-      <c r="D5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>50_0</v>
-      </c>
-      <c r="E5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>50_0.1</v>
-      </c>
-      <c r="F5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>39.4_2.4</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>41.4_1.7</v>
-      </c>
-      <c r="H5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>56_3.2</v>
-      </c>
-      <c r="I5" s="24" t="str">
-        <f t="shared" ref="I5:L5" si="1">ROUND(I6,1)&amp;"_"&amp;ROUND(I7,1)</f>
-        <v>44.4_1.4</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>25.2_4</v>
-      </c>
-      <c r="K5" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>49.4_1.1</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>54.5_0.8</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20">
+      <c r="C5" s="20">
         <f>AVERAGE(50,50,50,50,50)</f>
         <v>50</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D5" s="20">
         <f>AVERAGE(50,50.1,50,50,50)</f>
         <v>50.019999999999996</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E5" s="20">
         <f>AVERAGE(50,49.8,50,50,50)</f>
         <v>49.96</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F5" s="20">
         <f>AVERAGE(43,37,37.3,39.8,40.1)</f>
         <v>39.44</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G5" s="15">
         <f>AVERAGE(42.3,42.6,42.3,41.5,38.5)</f>
         <v>41.44</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H5" s="20">
         <f>AVERAGE(56.4,57.1,56.6,59.4,50.7)</f>
         <v>56.04</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I5" s="20">
         <f>AVERAGE(45.1,44.6,42.7,46.2,43.5)</f>
         <v>44.42</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J5" s="15">
         <f>AVERAGE(21.9,29.9,25.2,20.7,28.5)</f>
         <v>25.240000000000002</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K5" s="20">
         <f>AVERAGE(50.6,50.1,48.4,49.8,48.2)</f>
         <v>49.419999999999995</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L5" s="15">
         <f>AVERAGE(55.5,53.6,54.4,55,54)</f>
         <v>54.5</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="16">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="16">
         <f>_xlfn.STDEV.S(50,50,50,50,50)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D6" s="16">
         <f>_xlfn.STDEV.S(50,50.1,50,50,50)</f>
         <v>4.4721359549996433E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E6" s="16">
         <f>_xlfn.STDEV.S(50,49.8,50,50,50)</f>
         <v>8.9442719099992865E-2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F6" s="16">
         <f>_xlfn.STDEV.S(43,37,37.3,39.8,40.1)</f>
         <v>2.4378269011560283</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G6" s="16">
         <f>_xlfn.STDEV.S(42.3,42.6,42.3,41.5,38.5)</f>
         <v>1.6935170504013235</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H6" s="16">
         <f>_xlfn.STDEV.S(56.4,57.1,56.6,59.4,50.7)</f>
         <v>3.216053482142359</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I6" s="16">
         <f>_xlfn.STDEV.S(45.1,44.6,42.7,46.2,43.5)</f>
         <v>1.3663820841916805</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J6" s="16">
         <f>_xlfn.STDEV.S(21.9,29.9,25.2,20.7,28.5)</f>
         <v>4.0034984700883687</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K6" s="16">
         <f>_xlfn.STDEV.S(50.6,50.1,48.4,49.8,48.2)</f>
         <v>1.0639548862616308</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L6" s="16">
         <f>_xlfn.STDEV.S(55.5,53.6,54.4,55,54)</f>
         <v>0.76157731058639044</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15">
+        <v>53.300000000000004</v>
+      </c>
+      <c r="D7" s="15">
+        <v>50.6</v>
+      </c>
+      <c r="E7" s="15">
+        <v>50.2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>43</v>
+      </c>
+      <c r="G7" s="15">
+        <v>46.1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>61.8</v>
+      </c>
+      <c r="I7" s="15">
+        <v>53.5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>42.1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>58.099999999999994</v>
+      </c>
+      <c r="L7" s="15">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15">
+        <v>49.9</v>
+      </c>
+      <c r="E8" s="15">
+        <v>51.300000000000004</v>
+      </c>
+      <c r="F8" s="15">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43.4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>59</v>
+      </c>
+      <c r="I8" s="15">
+        <v>49.2</v>
+      </c>
+      <c r="J8" s="15">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K8" s="15">
+        <v>51.1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>57.4</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15">
-        <v>53.300000000000004</v>
-      </c>
-      <c r="D8" s="15">
-        <v>50.6</v>
-      </c>
-      <c r="E8" s="15">
-        <v>50.2</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="15">
-        <v>46.1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>61.8</v>
-      </c>
-      <c r="I8" s="15">
-        <v>53.5</v>
-      </c>
-      <c r="J8" s="15">
-        <v>42.1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>58.099999999999994</v>
-      </c>
-      <c r="L8" s="15">
-        <v>64.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="15">
-        <v>49.9</v>
-      </c>
-      <c r="E9" s="15">
-        <v>51.300000000000004</v>
-      </c>
-      <c r="F9" s="15">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="G9" s="15">
-        <v>43.4</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="15">
-        <v>49.2</v>
-      </c>
-      <c r="J9" s="15">
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K9" s="15">
-        <v>51.1</v>
-      </c>
-      <c r="L9" s="15">
-        <v>57.4</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" ref="C10:H10" si="2">ROUND(C11,1)&amp;"_"&amp;ROUND(C12,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0_0</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0_0</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0_0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0_0</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0_0</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" ref="I10" si="3">ROUND(I11,1)&amp;"_"&amp;ROUND(I12,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" ref="J10" si="4">ROUND(J11,1)&amp;"_"&amp;ROUND(J12,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" ref="K10" si="5">ROUND(K11,1)&amp;"_"&amp;ROUND(K12,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" ref="L10" si="6">ROUND(L11,1)&amp;"_"&amp;ROUND(L12,1)</f>
-        <v>0_0</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14">
+        <f>VALUE(LEFT(C11,4))</f>
+        <v>88.4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:L16" si="0">VALUE(LEFT(D11,4))</f>
+        <v>28.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>51.8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>57.8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="22"/>
+      <c r="C15">
+        <f>VALUE(LEFT(C12,4))</f>
+        <v>56.6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>56.4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>53.9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>71.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16">
+        <f>VALUE(LEFT(C13,4))</f>
+        <v>94.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>46.3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>53.9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>58.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17">
+        <f>VALUE(MID(C11,5,LEN(C11)))</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:L17" si="1">VALUE(MID(D11,5,LEN(D11)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" si="2">VALUE(MID(C12,5,LEN(C12)))</f>
+        <v>14.7</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19">
+        <f t="shared" ref="C19:L19" si="3">VALUE(MID(C13,5,LEN(C13)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="str">
+        <f>FIXED(C3,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:L21" si="4">FIXED(D3,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>50.0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>37.0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>42.0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v>52.8</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>44.3</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>31.1</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>48.7</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C22" t="str">
+        <f>FIXED(C4,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:L22" si="5">FIXED(D4,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="5"/>
+        <v>49.7</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="5"/>
+        <v>38.0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v>41.7</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>55.7</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="5"/>
+        <v>44.0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>16.7</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>45.2</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C23" t="str">
+        <f>FIXED(C5,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:L23" si="6">FIXED(D5,1)</f>
+        <v>50.0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="6"/>
+        <v>50.0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="6"/>
+        <v>39.4</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="6"/>
+        <v>41.4</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="6"/>
+        <v>56.0</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v>44.4</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="6"/>
+        <v>25.2</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="6"/>
+        <v>49.4</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="6"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C24" t="str">
+        <f>FIXED(C6,1)</f>
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24:L24" si="7">FIXED(D6,1)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="7"/>
+        <v>4.0</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:L29" si="8">FIXED(C7,1)</f>
+        <v>53.3</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="8"/>
+        <v>50.6</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="8"/>
+        <v>50.2</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="8"/>
+        <v>43.0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="8"/>
+        <v>46.1</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="8"/>
+        <v>61.8</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="8"/>
+        <v>53.5</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="8"/>
+        <v>42.1</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="8"/>
+        <v>58.1</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="8"/>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C26" t="str">
+        <f t="shared" si="8"/>
+        <v>50.0</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="8"/>
+        <v>49.9</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="8"/>
+        <v>51.3</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="8"/>
+        <v>38.7</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="8"/>
+        <v>43.4</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="8"/>
+        <v>59.0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="8"/>
+        <v>49.2</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="8"/>
+        <v>28.8</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="8"/>
+        <v>51.1</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="8"/>
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C29" t="str">
+        <f>FIXED(C14,1)</f>
+        <v>88.4</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29:L29" si="9">FIXED(D14,1)</f>
+        <v>28.2</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="9"/>
+        <v>21.7</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="9"/>
+        <v>51.8</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="9"/>
+        <v>57.8</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="9"/>
+        <v>72.6</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="9"/>
+        <v>65.7</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="9"/>
+        <v>77.9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v>73.5</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="9"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C30" t="str">
+        <f>FIXED(C15,1)</f>
+        <v>56.6</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:L30" si="10">FIXED(D15,1)</f>
+        <v>19.6</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="10"/>
+        <v>56.4</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="10"/>
+        <v>53.9</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="10"/>
+        <v>71.2</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="10"/>
+        <v>65.6</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="10"/>
+        <v>68.4</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="10"/>
+        <v>73.0</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="10"/>
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C31" t="str">
+        <f>FIXED(C16,1)</f>
+        <v>94.1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31:L31" si="11">FIXED(D16,1)</f>
+        <v>46.3</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="11"/>
+        <v>38.5</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="11"/>
+        <v>53.9</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="11"/>
+        <v>58.7</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="11"/>
+        <v>69.9</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="11"/>
+        <v>66.5</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="11"/>
+        <v>79.1</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="11"/>
+        <v>72.0</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="11"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C32" t="str">
+        <f>FIXED(C17,1)</f>
+        <v>2.2</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32:L32" si="12">FIXED(D17,1)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="12"/>
+        <v>7.1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="12"/>
+        <v>1.6</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="12"/>
+        <v>1.7</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="12"/>
+        <v>1.3</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="12"/>
+        <v>1.9</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="12"/>
+        <v>2.9</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C33" t="str">
+        <f>FIXED(C18,1)</f>
+        <v>14.7</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:L33" si="13">FIXED(D18,1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="13"/>
+        <v>2.9</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="13"/>
+        <v>1.1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="13"/>
+        <v>1.7</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="13"/>
+        <v>3.0</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="13"/>
+        <v>3.0</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C34" t="str">
+        <f>FIXED(C19,1)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:L34" si="14">FIXED(D19,1)</f>
+        <v>6.0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="14"/>
+        <v>15.2</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="14"/>
+        <v>1.6</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="14"/>
+        <v>1.7</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="14"/>
+        <v>1.0</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="14"/>
+        <v>1.8</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="b">
+        <f>C3=MAX(C$3,C$4,C$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <f>D3=MAX(D$3,D$4,D$5)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <f>E3=MAX(E$3,E$4,E$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <f>F3=MAX(F$3,F$4,F$5)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f>G3=MAX(G$3,G$4,G$5)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <f>H3=MAX(H$3,H$4,H$5)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f>I3=MAX(I$3,I$4,I$5)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <f>J3=MAX(J$3,J$4,J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <f>K3=MAX(K$3,K$4,K$5)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <f>L3=MAX(L$3,L$4,L$5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C37" t="b">
+        <f>C4=MAX(C$3,C$4,C$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f>D4=MAX(D$3,D$4,D$5)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <f>E4=MAX(E$3,E$4,E$5)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <f>F4=MAX(F$3,F$4,F$5)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f>G4=MAX(G$3,G$4,G$5)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <f>H4=MAX(H$3,H$4,H$5)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f>I4=MAX(I$3,I$4,I$5)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <f>J4=MAX(J$3,J$4,J$5)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <f>K4=MAX(K$3,K$4,K$5)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <f>L4=MAX(L$3,L$4,L$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C38" t="b">
+        <f>AND(NOT(C36),NOT(C37))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" ref="D38:L38" si="15">AND(NOT(D36),NOT(D37))</f>
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C39" t="b">
+        <f>C7=MAX(C$7,C$8,C$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <f>D7=MAX(D$7,D$8,D$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <f>E7=MAX(E$7,E$8,E$9)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <f>F7=MAX(F$7,F$8,F$9)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <f>G7=MAX(G$7,G$8,G$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <f>H7=MAX(H$7,H$8,H$9)</f>
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <f>I7=MAX(I$7,I$8,I$9)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <f>J7=MAX(J$7,J$8,J$9)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <f>K7=MAX(K$7,K$8,K$9)</f>
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <f>L7=MAX(L$7,L$8,L$9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C40" t="b">
+        <f>C8=MAX(C$7,C$8,C$9)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <f>D8=MAX(D$7,D$8,D$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <f>E8=MAX(E$7,E$8,E$9)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <f>F8=MAX(F$7,F$8,F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <f>G8=MAX(G$7,G$8,G$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <f>H8=MAX(H$7,H$8,H$9)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f>I8=MAX(I$7,I$8,I$9)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <f>J8=MAX(J$7,J$8,J$9)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <f>K8=MAX(K$7,K$8,K$9)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <f>L8=MAX(L$7,L$8,L$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C41" t="b">
+        <f>AND(NOT(C39),NOT(C40))</f>
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" ref="D41" si="16">AND(NOT(D39),NOT(D40))</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" ref="E41" si="17">AND(NOT(E39),NOT(E40))</f>
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" ref="F41" si="18">AND(NOT(F39),NOT(F40))</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" ref="G41" si="19">AND(NOT(G39),NOT(G40))</f>
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" ref="H41" si="20">AND(NOT(H39),NOT(H40))</f>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" ref="I41" si="21">AND(NOT(I39),NOT(I40))</f>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" ref="J41" si="22">AND(NOT(J39),NOT(J40))</f>
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" ref="K41" si="23">AND(NOT(K39),NOT(K40))</f>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" ref="L41" si="24">AND(NOT(L39),NOT(L40))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C42" t="b">
+        <f>C14=MAX(C$14:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" ref="D42:L42" si="25">D14=MAX(D$14:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C43" t="b">
+        <f>C15=MAX(C$14:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" ref="D43:L43" si="26">D15=MAX(D$14:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C44" t="b">
+        <f>AND(NOT(C42),NOT(C43))</f>
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" ref="D44:L44" si="27">AND(NOT(D42),NOT(D43))</f>
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="str">
+        <f>IF(C36,"$\mathbf{"&amp;C21&amp;"}$","$"&amp;C21&amp;"$")</f>
+        <v>$\mathbf{50.0}$</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" ref="D46:L46" si="28">IF(D36,"$\mathbf{"&amp;D21&amp;"}$","$"&amp;D21&amp;"$")</f>
+        <v>$50.0$</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="28"/>
+        <v>$\mathbf{50.0}$</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="28"/>
+        <v>$37.0$</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="28"/>
+        <v>$\mathbf{42.0}$</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="28"/>
+        <v>$52.8$</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="28"/>
+        <v>$44.3$</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="28"/>
+        <v>$\mathbf{31.1}$</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="28"/>
+        <v>$48.7$</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="28"/>
+        <v>$\mathbf{56.0}$</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C47" t="str">
+        <f>IF(C37,"$\mathbf{"&amp;C22&amp;"}$","$"&amp;C22&amp;"$")</f>
+        <v>$\mathbf{50.0}$</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" ref="D47:L47" si="29">IF(D37,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
+        <v>$50.0$</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="29"/>
+        <v>$49.7$</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="29"/>
+        <v>$38.0$</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="29"/>
+        <v>$41.7$</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="29"/>
+        <v>$55.7$</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="29"/>
+        <v>$44.0$</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="29"/>
+        <v>$16.7$</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="29"/>
+        <v>$45.2$</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="29"/>
+        <v>$49.6$</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C48" t="str">
+        <f>IF(C38,"$\mathbf{"&amp;C23&amp;"}","$"&amp;C23)&amp;"_{"&amp;C24&amp;"}$"</f>
+        <v>$50.0_{0.0}$</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" ref="D48:L48" si="30">IF(D38,"$\mathbf{"&amp;D23&amp;"}","$"&amp;D23)&amp;"_{"&amp;D24&amp;"}$"</f>
+        <v>$\mathbf{50.0}_{0.0}$</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="30"/>
+        <v>$50.0_{0.1}$</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="30"/>
+        <v>$\mathbf{39.4}_{2.4}$</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="30"/>
+        <v>$41.4_{1.7}$</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="30"/>
+        <v>$\mathbf{56.0}_{3.2}$</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="30"/>
+        <v>$\mathbf{44.4}_{1.4}$</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="30"/>
+        <v>$25.2_{4.0}$</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="30"/>
+        <v>$\mathbf{49.4}_{1.1}$</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="30"/>
+        <v>$54.5_{0.8}$</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C49" t="str">
+        <f>IF(C39,"$\mathbf{"&amp;C25&amp;"}$","$"&amp;C25&amp;"$")</f>
+        <v>$\mathbf{53.3}$</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:L49" si="31">IF(D39,"$\mathbf{"&amp;D25&amp;"}$","$"&amp;D25&amp;"$")</f>
+        <v>$\mathbf{50.6}$</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="31"/>
+        <v>$50.2$</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{43.0}$</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{46.1}$</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{61.8}$</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{53.5}$</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{42.1}$</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{58.1}$</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="31"/>
+        <v>$\mathbf{64.7}$</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C50" t="str">
+        <f>IF(C40,"$\mathbf{"&amp;C26&amp;"}$","$"&amp;C26&amp;"$")</f>
+        <v>$50.0$</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" ref="D50:L50" si="32">IF(D40,"$\mathbf{"&amp;D26&amp;"}$","$"&amp;D26&amp;"$")</f>
+        <v>$49.9$</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="32"/>
+        <v>$\mathbf{51.3}$</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="32"/>
+        <v>$38.7$</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="32"/>
+        <v>$43.4$</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="32"/>
+        <v>$59.0$</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="32"/>
+        <v>$49.2$</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="32"/>
+        <v>$28.8$</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="32"/>
+        <v>$51.1$</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="32"/>
+        <v>$57.4$</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C51" t="str">
+        <f>IF(C41,"$\mathbf{"&amp;C27&amp;"}","$"&amp;C27)&amp;"_{"&amp;C28&amp;"}$"</f>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51:L51" si="33">IF(D41,"$\mathbf{"&amp;D27&amp;"}","$"&amp;D27)&amp;"_{"&amp;D28&amp;"}$"</f>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C52" t="str">
+        <f>IF(C42,"$\mathbf{"&amp;C29&amp;"}","$"&amp;C29)&amp;"_{"&amp;C32&amp;"}$"</f>
+        <v>$88.4_{2.2}$</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ref="D52:L52" si="34">IF(D42,"$\mathbf{"&amp;D29&amp;"}","$"&amp;D29)&amp;"_{"&amp;D32&amp;"}$"</f>
+        <v>$28.2_{3.4}$</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="34"/>
+        <v>$21.7_{7.1}$</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="34"/>
+        <v>$51.8_{1.6}$</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="34"/>
+        <v>$57.8_{1.7}$</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="34"/>
+        <v>$\mathbf{72.6}_{1.3}$</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="34"/>
+        <v>$65.7_{1.9}$</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="34"/>
+        <v>$77.9_{2.5}$</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="34"/>
+        <v>$\mathbf{73.5}_{2.9}$</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="34"/>
+        <v>$\mathbf{79.8}_{0.8}$</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C53" t="str">
+        <f t="shared" ref="C53:L53" si="35">IF(C43,"$\mathbf{"&amp;C30&amp;"}","$"&amp;C30)&amp;"_{"&amp;C33&amp;"}$"</f>
+        <v>$56.6_{14.7}$</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="35"/>
+        <v>$19.6_{5.6}$</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="35"/>
+        <v>$13.8_{2.9}$</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="35"/>
+        <v>$\mathbf{56.4}_{0.8}$</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="35"/>
+        <v>$53.9_{1.5}$</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="35"/>
+        <v>$71.2_{1.1}$</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="35"/>
+        <v>$65.6_{1.7}$</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="35"/>
+        <v>$68.4_{3.0}$</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="35"/>
+        <v>$73.0_{3.0}$</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="35"/>
+        <v>$78.6_{0.4}$</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C54" t="str">
+        <f t="shared" ref="C54:L54" si="36">IF(C44,"$\mathbf{"&amp;C31&amp;"}","$"&amp;C31)&amp;"_{"&amp;C34&amp;"}$"</f>
+        <v>$\mathbf{94.1}_{3.5}$</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{46.3}_{6.0}$</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{38.5}_{15.2}$</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="36"/>
+        <v>$53.9_{1.6}$</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{58.7}_{1.2}$</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="36"/>
+        <v>$69.9_{0.9}$</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{66.5}_{1.7}$</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{79.1}_{1.0}$</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="36"/>
+        <v>$72.0_{1.8}$</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="36"/>
+        <v>$79.5_{0.4}$</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1283,42 +3218,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D56591-F773-47DA-BE21-114B8FA67E99}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1355,7 +3292,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1393,7 +3330,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1429,232 +3366,200 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>ROUND(C6,2)&amp;"_"&amp;ROUND(C7,2)</f>
-        <v>0_0</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:L5" si="0">ROUND(D6,2)&amp;"_"&amp;ROUND(D7,2)</f>
-        <v>0_0.02</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-0.01_0.01</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.1_0.02</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.12_0.03</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.24_0.05</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.13_0.02</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-0.15_0.03</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.25_0.01</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0.32_0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21">
+      <c r="C5" s="21">
         <f>AVERAGE(0,0.01,0,0,0)</f>
         <v>2E-3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D5" s="21">
         <f>AVERAGE(-0.01,0.03,-0.01,0,0)</f>
         <v>1.9999999999999992E-3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E5" s="21">
         <f>AVERAGE(-0.01,-0.03,0,-0.01,0)</f>
         <v>-0.01</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F5" s="21">
         <f>AVERAGE(0.13,0.08,0.08,0.09,0.12)</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G5" s="21">
         <f>AVERAGE(0.14,0.13,0.13,0.11,0.07)</f>
         <v>0.11600000000000002</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H5" s="21">
         <f>AVERAGE(0.24,0.27,0.25,0.29,0.17)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I5" s="8">
         <f>AVERAGE(0.13,0.14,0.11,0.15,0.12)</f>
         <v>0.13</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J5" s="8">
         <f>AVERAGE(-0.18,-0.16,-0.12,-0.11,-0.18)</f>
         <v>-0.15</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K5" s="21">
         <f>AVERAGE(0.26,0.26,0.25,0.25,0.24)</f>
         <v>0.252</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L5" s="8">
         <f>AVERAGE(0.33,0.31,0.32,0.33,0.32)</f>
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="17">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17">
         <f>STDEV(0,0.01,0,0,0)</f>
         <v>4.4721359549995798E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D6" s="17">
         <f>STDEV(-0.01,0.03,-0.01,0,0)</f>
         <v>1.6431676725154984E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E6" s="17">
         <f>STDEV(-0.01,-0.03,0,-0.01,0)</f>
         <v>1.2247448713915889E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F6" s="17">
         <f>_xlfn.STDEV.S(0.13,0.08,0.08,0.09,0.12)</f>
         <v>2.3452078799117114E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G6" s="17">
         <f>_xlfn.STDEV.S(0.14,0.13,0.13,0.11,0.07)</f>
         <v>2.7928480087537809E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H6" s="17">
         <f>_xlfn.STDEV.S(0.24,0.27,0.25,0.29,0.17)</f>
         <v>4.5607017003965501E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I6" s="17">
         <f>_xlfn.STDEV.S(0.13,0.14,0.11,0.15,0.12)</f>
         <v>1.5811388300841795E-2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J6" s="17">
         <f>_xlfn.STDEV.S(-0.18,-0.16,-0.12,-0.11,-0.18)</f>
         <v>3.316624790355395E-2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K6" s="17">
         <f>_xlfn.STDEV.S(0.26,0.26,0.25,0.25,0.24)</f>
         <v>8.3666002653407633E-3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L6" s="17">
         <f>_xlfn.STDEV.S(0.33,0.31,0.32,0.33,0.32)</f>
         <v>8.3666002653407633E-3</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-0.11</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.47</v>
+      </c>
+    </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E8" s="8">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F8" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G8" s="8">
-        <v>0.19</v>
-      </c>
       <c r="H8" s="8">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I8" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="J8" s="8">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="K8" s="8">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="8">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="J9" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.37</v>
-      </c>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1667,87 +3572,861 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="str">
+        <f>FIXED(C3,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:L12" si="0">FIXED(D3,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.14</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:L13" si="1">FIXED(C4,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.10</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.20</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:L14" si="2">FIXED(C5,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.00</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.10</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:L15" si="3">FIXED(C6,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:L16" si="4">FIXED(C7,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.07</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.14</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.19</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.11</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:L17" si="5">FIXED(C8,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.14</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.28</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.10</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.30</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:L18" si="6">FIXED(C9,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:L19" si="7">FIXED(C10,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="b">
+        <f>C3=MAX(C$3:C$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" ref="D21:L21" si="8">D3=MAX(D$3:D$5)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C22" t="b">
+        <f t="shared" ref="C22:L22" si="9">C4=MAX(C$3:C$5)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C23" t="b">
+        <f>AND(NOT(C21),NOT(C22))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" ref="D23:L23" si="10">AND(NOT(D21),NOT(D22))</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C24" t="b">
+        <f>C7=MAX(C$7:C$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" ref="D24:L24" si="11">D7=MAX(D$7:D$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C25" t="b">
+        <f t="shared" ref="C25:L25" si="12">C8=MAX(C$7:C$9)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C26" t="b">
+        <f>AND(NOT(C24),NOT(C25))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" ref="D26:L26" si="13">AND(NOT(D24),NOT(D25))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(C21,"$\mathbf{"&amp;C12&amp;"}$","$"&amp;C12&amp;"$")</f>
+        <v>$\mathbf{0.01}$</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:L28" si="14">IF(D21,"$\mathbf{"&amp;D12&amp;"}$","$"&amp;D12&amp;"$")</f>
+        <v>$0.00$</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
+        <v>$\mathbf{-0.01}$</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="14"/>
+        <v>$0.06$</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="14"/>
+        <v>$\mathbf{0.12}$</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="14"/>
+        <v>$0.19$</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="14"/>
+        <v>$\mathbf{0.14}$</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="14"/>
+        <v>$-0.15$</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="14"/>
+        <v>$0.25$</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="14"/>
+        <v>$\mathbf{0.35}$</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:L29" si="15">IF(C22,"$\mathbf{"&amp;C13&amp;"}$","$"&amp;C13&amp;"$")</f>
+        <v>$0.00$</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="15"/>
+        <v>$-0.01$</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="15"/>
+        <v>$-0.02$</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="15"/>
+        <v>$\mathbf{0.10}$</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="15"/>
+        <v>$0.11$</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="15"/>
+        <v>$0.22$</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="15"/>
+        <v>$0.11$</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="15"/>
+        <v>$\mathbf{-0.03}$</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="15"/>
+        <v>$0.20$</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="15"/>
+        <v>$0.26$</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C30" t="str">
+        <f>IF(C23,"$\mathbf{"&amp;C14&amp;"}","$"&amp;C14)&amp;"_{"&amp;C15&amp;"}$"</f>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:L30" si="16">IF(D23,"$\mathbf{"&amp;D14&amp;"}","$"&amp;D14)&amp;"_{"&amp;D15&amp;"}$"</f>
+        <v>$\mathbf{0.00}_{0.02}$</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="16"/>
+        <v>$-0.01_{0.01}$</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="16"/>
+        <v>$0.10_{0.02}$</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="16"/>
+        <v>$0.12_{0.03}$</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="16"/>
+        <v>$\mathbf{0.24}_{0.05}$</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="16"/>
+        <v>$0.13_{0.02}$</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="16"/>
+        <v>$-0.15_{0.03}$</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="16"/>
+        <v>$\mathbf{0.25}_{0.01}$</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="16"/>
+        <v>$0.32_{0.01}$</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C31" t="str">
+        <f>IF(C24,"$\mathbf{"&amp;C16&amp;"}$","$"&amp;C16&amp;"$")</f>
+        <v>$\mathbf{0.18}$</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31:L31" si="17">IF(D24,"$\mathbf{"&amp;D16&amp;"}$","$"&amp;D16&amp;"$")</f>
+        <v>$\mathbf{0.07}$</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="17"/>
+        <v>$0.03$</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.14}$</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.19}$</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.34}$</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.29}$</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="17"/>
+        <v>$-0.11$</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.38}$</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="17"/>
+        <v>$\mathbf{0.47}$</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C32" t="str">
+        <f>IF(C25,"$\mathbf{"&amp;C17&amp;"}$","$"&amp;C17&amp;"$")</f>
+        <v>$0.01$</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32:L32" si="18">IF(D25,"$\mathbf{"&amp;D17&amp;"}$","$"&amp;D17&amp;"$")</f>
+        <v>$-0.03$</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="18"/>
+        <v>$\mathbf{0.11}$</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.11$</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.14$</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.28$</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.21$</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="18"/>
+        <v>$\mathbf{-0.10}$</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.30$</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="18"/>
+        <v>$0.37$</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" t="str">
+        <f>IF(C26,"$\mathbf{"&amp;C18&amp;"}","$"&amp;C18)&amp;"_{"&amp;C19&amp;"}$"</f>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:L33" si="19">IF(D26,"$\mathbf{"&amp;D18&amp;"}","$"&amp;D18)&amp;"_{"&amp;D19&amp;"}$"</f>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="19"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
@@ -1757,7 +4436,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A5830-F05C-4E33-8DEA-0D543C9BBC8A}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,25 +4444,25 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1808,7 +4487,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1834,7 +4513,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1858,210 +4537,861 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>ROUND(C6,1)&amp;"_"&amp;ROUND(C7,1)</f>
-        <v>31.8_1</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:E5" si="0">ROUND(D6,1)&amp;"_"&amp;ROUND(D7,1)</f>
-        <v>31.4_0.6</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>34.3_0.5</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>ROUND(F6,2)&amp;"_"&amp;ROUND(F7,2)</f>
-        <v>-0.03_0.01</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" ref="G5:H5" si="1">ROUND(G6,2)&amp;"_"&amp;ROUND(G7,2)</f>
-        <v>-0.03_0.01</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>0.01_0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18">
+      <c r="C5" s="18">
         <f>AVERAGE(31.9,33.5,31.2,31.1,31.5)</f>
         <v>31.840000000000003</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D5" s="14">
         <f>AVERAGE(32,30.5,31.3,31.7,31.6)</f>
         <v>31.419999999999998</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E5" s="14">
         <f>AVERAGE(34.4,34.4,34,35.1,33.8)</f>
         <v>34.339999999999996</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F5" s="19">
         <f>AVERAGE(-0.02,-0.01,-0.04,-0.04,-0.03)</f>
         <v>-2.8000000000000004E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G5" s="7">
         <f>AVERAGE(-0.02,-0.04,-0.03,-0.03,-0.03)</f>
         <v>-0.03</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H5" s="7">
         <f>AVERAGE(0.01,0.01,0.01,0.03,0)</f>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="16">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="16">
         <f>_xlfn.STDEV.S(31.9,33.5,31.2,31.1,31.5)</f>
         <v>0.97877474425937239</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D6" s="16">
         <f>_xlfn.STDEV.S(32,30.5,31.3,31.7,31.6)</f>
         <v>0.5718391382198319</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E6" s="16">
         <f>_xlfn.STDEV.S(34.4,34.4,34,35.1,33.8)</f>
         <v>0.49799598391955052</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F6" s="17">
         <f>_xlfn.STDEV.S(-0.02,-0.01,-0.04,-0.04,-0.03)</f>
         <v>1.303840481040529E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G6" s="17">
         <f>_xlfn.STDEV.S(-0.02,-0.04,-0.03,-0.03,-0.03)</f>
         <v>7.0710678118654693E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H6" s="17">
         <f>_xlfn.STDEV.S(0.01,0.01,0.01,0.03,0)</f>
         <v>1.0954451150103324E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14">
+        <v>32.4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>30.14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14">
+        <v>29.099999999999998</v>
+      </c>
+      <c r="D8" s="14">
+        <v>31.7</v>
+      </c>
+      <c r="E8" s="14">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C11" s="14">
+        <v>58.5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>48.3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>50.1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="18">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D12" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>52.8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="str">
+        <f>FIXED(C3,1)</f>
+        <v>32.1</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:E14" si="0">FIXED(D3,1)</f>
+        <v>32.3</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>34.9</v>
+      </c>
+      <c r="F14" t="str">
+        <f>FIXED(F3,2)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:H14" si="1">FIXED(G3,2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:E15" si="2">FIXED(C4,1)</f>
+        <v>31.3</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>33.3</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:H15" si="3">FIXED(F4,2)</f>
+        <v>-0.04</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.00</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:E16" si="4">FIXED(C5,1)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>31.4</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>34.3</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16:H16" si="5">FIXED(F5,2)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:E17" si="6">FIXED(C6,1)</f>
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:H17" si="7">FIXED(F6,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:E18" si="8">FIXED(C7,1)</f>
         <v>32.4</v>
       </c>
-      <c r="D8" s="14">
-        <v>30.14</v>
-      </c>
-      <c r="E8" s="14">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D18" t="str">
+        <f t="shared" si="8"/>
+        <v>30.1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="8"/>
+        <v>36.8</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:H18" si="9">FIXED(F7,2)</f>
         <v>-0.01</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G18" t="str">
+        <f t="shared" si="9"/>
         <v>-0.05</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H18" t="str">
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14">
-        <v>29.099999999999998</v>
-      </c>
-      <c r="D9" s="14">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:E19" si="10">FIXED(C8,1)</f>
+        <v>29.1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="10"/>
         <v>31.7</v>
       </c>
-      <c r="E9" s="14">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E19" t="str">
+        <f t="shared" si="10"/>
+        <v>34.8</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:H19" si="11">FIXED(F8,2)</f>
         <v>-0.06</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G19" t="str">
+        <f t="shared" si="11"/>
         <v>-0.03</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H19" t="str">
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:E20" si="12">FIXED(C9,1)</f>
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="12"/>
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="12"/>
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20:H20" si="13">FIXED(F9,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="13"/>
+        <v>0.00</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="13"/>
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:E21" si="14">FIXED(C10,1)</f>
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="14"/>
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="14"/>
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21:H21" si="15">FIXED(F10,2)</f>
+        <v>0.00</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="15"/>
+        <v>0.00</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="15"/>
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:E22" si="16">FIXED(C11,1)</f>
+        <v>58.5</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="16"/>
+        <v>48.3</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="16"/>
+        <v>50.1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:E23" si="17">FIXED(C12,1)</f>
+        <v>65.1</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="17"/>
+        <v>49.1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="17"/>
+        <v>52.8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="b">
+        <f>C3=MAX(C$3:C$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" ref="D25:H25" si="18">D3=MAX(D$3:D$5)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C26" t="b">
+        <f t="shared" ref="C26:H26" si="19">C4=MAX(C$3:C$5)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C27" t="b">
+        <f>AND(NOT(C25),NOT(C26))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" ref="D27:E27" si="20">AND(NOT(D25),NOT(D26))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" ref="F27" si="21">AND(NOT(F25),NOT(F26))</f>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" ref="G27" si="22">AND(NOT(G25),NOT(G26))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" ref="H27" si="23">AND(NOT(H25),NOT(H26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C28" t="b">
+        <f>C7=MAX(C$7:C$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" ref="D28:H28" si="24">D7=MAX(D$7:D$9)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C29" t="b">
+        <f>C8=MAX(C$7:C$9)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" ref="D29:H29" si="25">D8=MAX(D$7:D$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C30" t="b">
+        <f>AND(NOT(C28),NOT(C29))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" ref="D30:E30" si="26">AND(NOT(D28),NOT(D29))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" ref="F30" si="27">AND(NOT(F28),NOT(F29))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" ref="G30" si="28">AND(NOT(G28),NOT(G29))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <f t="shared" ref="H30" si="29">AND(NOT(H28),NOT(H29))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C31" t="b">
+        <f>C11=MAX(C$11:C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" ref="D31:H31" si="30">D11=MAX(D$11:D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C32" t="b">
+        <f>NOT(C31)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" ref="D32:H32" si="31">NOT(D31)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(C25,"$\mathbf{"&amp;C14&amp;"}$","$"&amp;C14&amp;"$")</f>
+        <v>$\mathbf{32.1}$</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:H34" si="32">IF(D25,"$\mathbf{"&amp;D14&amp;"}$","$"&amp;D14&amp;"$")</f>
+        <v>$32.3$</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="32"/>
+        <v>$\mathbf{34.9}$</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="32"/>
+        <v>$-0.03$</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="32"/>
+        <v>$-0.02$</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="32"/>
+        <v>$\mathbf{0.02}$</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C35" t="str">
+        <f>IF(C26,"$\mathbf{"&amp;C15&amp;"}$","$"&amp;C15&amp;"$")</f>
+        <v>$31.3$</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35:H35" si="33">IF(D26,"$\mathbf{"&amp;D15&amp;"}$","$"&amp;D15&amp;"$")</f>
+        <v>$\mathbf{33.3}$</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="33"/>
+        <v>$34.5$</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="33"/>
+        <v>$-0.04$</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="33"/>
+        <v>$\mathbf{0.00}$</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="33"/>
+        <v>$0.01$</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C36" t="str">
+        <f>IF(C27,"$\mathbf{"&amp;C16&amp;"}","$"&amp;C16)&amp;"_{"&amp;C17&amp;"}$"</f>
+        <v>$31.8_{1.0}$</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36:H36" si="34">IF(D27,"$\mathbf{"&amp;D16&amp;"}","$"&amp;D16)&amp;"_{"&amp;D17&amp;"}$"</f>
+        <v>$31.4_{0.6}$</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="34"/>
+        <v>$34.3_{0.5}$</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="34"/>
+        <v>$\mathbf{-0.03}_{0.01}$</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="34"/>
+        <v>$-0.03_{0.01}$</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="34"/>
+        <v>$0.01_{0.01}$</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C37" t="str">
+        <f>IF(C28,"$\mathbf{"&amp;C18&amp;"}$","$"&amp;C18&amp;"$")</f>
+        <v>$\mathbf{32.4}$</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37:H37" si="35">IF(D28,"$\mathbf{"&amp;D18&amp;"}$","$"&amp;D18&amp;"$")</f>
+        <v>$30.1$</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="35"/>
+        <v>$\mathbf{36.8}$</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="35"/>
+        <v>$\mathbf{-0.01}$</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="35"/>
+        <v>$-0.05$</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="35"/>
+        <v>$\mathbf{0.05}$</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C38" t="str">
+        <f>IF(C29,"$\mathbf{"&amp;C19&amp;"}$","$"&amp;C19&amp;"$")</f>
+        <v>$29.1$</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:H38" si="36">IF(D29,"$\mathbf{"&amp;D19&amp;"}$","$"&amp;D19&amp;"$")</f>
+        <v>$\mathbf{31.7}$</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="36"/>
+        <v>$34.8$</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="36"/>
+        <v>$-0.06$</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="36"/>
+        <v>$\mathbf{-0.03}$</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="36"/>
+        <v>$0.02$</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C39" t="str">
+        <f>IF(C30,"$\mathbf{"&amp;C20&amp;"}","$"&amp;C20)&amp;"_{"&amp;C21&amp;"}$"</f>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39:H39" si="37">IF(D30,"$\mathbf{"&amp;D20&amp;"}","$"&amp;D20)&amp;"_{"&amp;D21&amp;"}$"</f>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="37"/>
+        <v>$0.0_{0.0}$</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="37"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="37"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="37"/>
+        <v>$0.00_{0.00}$</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C40" t="str">
+        <f>IF(C31,"$\mathbf{"&amp;C22&amp;"}$","$"&amp;C22&amp;"$")</f>
+        <v>$58.5$</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" ref="D40:H40" si="38">IF(D31,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
+        <v>$48.3$</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="38"/>
+        <v>$50.1$</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:H41" si="39">IF(C32,"$\mathbf{"&amp;C23&amp;"}$","$"&amp;C23&amp;"$")</f>
+        <v>$\mathbf{65.1}$</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="39"/>
+        <v>$\mathbf{49.1}$</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="39"/>
+        <v>$\mathbf{52.8}$</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi\Documents\adversarial_nli_gpt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4BD64-B5A5-497A-B4BA-ADC5A78FC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61DAFC-4FD7-4705-A43E-C5BA44C444C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0C0D5CA4-FFEB-41F7-9EFC-723874272852}"/>
   </bookViews>
@@ -717,7 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11041D99-3637-46BE-9620-CCCC7C3A1026}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -729,8 +731,8 @@
     <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.36328125" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.36328125" customWidth="1"/>
     <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
@@ -748,7 +750,7 @@
       <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
       <c r="J1" s="12"/>
@@ -777,7 +779,7 @@
         <v>85.6</v>
       </c>
       <c r="J2" s="19" t="str">
-        <f>FIXED(D2,2)</f>
+        <f t="shared" ref="J2:J7" si="0">FIXED(D2,2)</f>
         <v>0.78</v>
       </c>
       <c r="O2" t="b">
@@ -809,11 +811,11 @@
         <v>0.69</v>
       </c>
       <c r="I3" s="14" t="str">
-        <f t="shared" ref="I3:I10" si="0">FIXED(C3,1)</f>
+        <f t="shared" ref="I3:I10" si="1">FIXED(C3,1)</f>
         <v>79.5</v>
       </c>
       <c r="J3" s="7" t="str">
-        <f>FIXED(D3,2)</f>
+        <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="O3" t="b">
@@ -855,18 +857,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>83.9</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>83.9</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f>FIXED(D4,2)</f>
         <v>0.76</v>
       </c>
-      <c r="L4" s="14" t="str">
-        <f t="shared" ref="L4" si="1">FIXED(F4,1)</f>
+      <c r="L4" s="16" t="str">
+        <f t="shared" ref="L4" si="2">FIXED(F4,1)</f>
         <v>0.1</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="M4" s="13" t="str">
         <f>FIXED(G4,2)</f>
         <v>0.00</v>
       </c>
@@ -879,12 +881,12 @@
         <v>0</v>
       </c>
       <c r="R4" t="str">
-        <f>IF(O4,"$\mathbf{"&amp;ROUND(I4,1)&amp;"}","$"&amp;ROUND(I4,1))&amp;"_{"&amp;ROUND(L4,1)&amp;"}$"</f>
+        <f>IF(O4,"$\mathbf{"&amp;I4&amp;"}","$"&amp;I4)&amp;"_{"&amp;L4&amp;"}$"</f>
         <v>$83.9_{0.1}$</v>
       </c>
       <c r="S4" t="str">
-        <f>IF(P4,"$\mathbf{"&amp;ROUND(J4,1)&amp;"}","$"&amp;ROUND(J4,1))&amp;"_{"&amp;ROUND(M4,1)&amp;"}$"</f>
-        <v>$0.8_{0}$</v>
+        <f>IF(P4,"$\mathbf{"&amp;J4&amp;"}","$"&amp;J4)&amp;"_{"&amp;M4&amp;"}$"</f>
+        <v>$0.76_{0.00}$</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -894,18 +896,18 @@
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="18">
         <v>89.4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="19">
         <v>0.84</v>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>89.4</v>
+      </c>
+      <c r="J5" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>89.4</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>FIXED(D5,2)</f>
         <v>0.84</v>
       </c>
       <c r="O5" t="b">
@@ -937,11 +939,11 @@
         <v>0.8</v>
       </c>
       <c r="I6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>86.4</v>
+      </c>
+      <c r="J6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>86.4</v>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f>FIXED(D6,2)</f>
         <v>0.80</v>
       </c>
       <c r="O6" t="b">
@@ -966,24 +968,37 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
-      <c r="I7" s="4" t="str">
+      <c r="C7" s="14">
+        <f>AVERAGE(87.16, 86.07,87.23,87.32,86.39)</f>
+        <v>86.833999999999989</v>
+      </c>
+      <c r="D7" s="7">
+        <f>AVERAGE(0.81, 0.79, 0.81,0.81,0.8)</f>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F7" s="16">
+        <f>_xlfn.STDEV.S(87.16, 86.07,87.23,87.32,86.39)</f>
+        <v>0.56571194083208198</v>
+      </c>
+      <c r="G7" s="13">
+        <f>_xlfn.STDEV.S(0.81, 0.79, 0.81,0.81,0.8)</f>
+        <v>8.9442719099991665E-3</v>
+      </c>
+      <c r="I7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>86.8</v>
+      </c>
+      <c r="J7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>FIXED(D7,2)</f>
-        <v>0.00</v>
-      </c>
-      <c r="L7" s="14" t="str">
-        <f t="shared" ref="L7" si="2">FIXED(F7,1)</f>
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="7" t="str">
+        <v>0.80</v>
+      </c>
+      <c r="L7" s="16" t="str">
+        <f t="shared" ref="L7" si="3">FIXED(F7,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="13" t="str">
         <f>FIXED(G7,2)</f>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="O7" t="b">
         <f>AND(NOT(O5),NOT(O6))</f>
@@ -994,12 +1009,12 @@
         <v>0</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(O7,"$\mathbf{"&amp;ROUND(I7,1)&amp;"}","$"&amp;ROUND(I7,1))&amp;"_{"&amp;ROUND(L7,1)&amp;"}$"</f>
-        <v>$0_{0}$</v>
+        <f>IF(O7,"$\mathbf{"&amp;I7&amp;"}","$"&amp;I7)&amp;"_{"&amp;L7&amp;"}$"</f>
+        <v>$86.8_{0.6}$</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(P7,"$\mathbf{"&amp;ROUND(J7,1)&amp;"}","$"&amp;ROUND(J7,1))&amp;"_{"&amp;ROUND(M7,1)&amp;"}$"</f>
-        <v>$0_{0}$</v>
+        <f>IF(P7,"$\mathbf{"&amp;J7&amp;"}","$"&amp;J7)&amp;"_{"&amp;M7&amp;"}$"</f>
+        <v>$0.80_{0.01}$</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1009,14 +1024,14 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="18">
         <v>92.6</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>92.6</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -1031,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" ref="R8:S10" si="3">IF(O8,"$\mathbf{"&amp;I8&amp;"}$","$"&amp;I8&amp;"$")</f>
+        <f t="shared" ref="R8:R10" si="4">IF(O8,"$\mathbf{"&amp;I8&amp;"}$","$"&amp;I8&amp;"$")</f>
         <v>$\mathbf{92.6}$</v>
       </c>
       <c r="S8" s="7" t="s">
@@ -1050,7 +1065,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.3</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$88.3$</v>
       </c>
       <c r="S9" s="7" t="s">
@@ -1084,7 +1099,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.6</v>
       </c>
       <c r="J10" s="7" t="s">
@@ -1099,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>$62.6$</v>
       </c>
       <c r="S10" s="7" t="s">
@@ -1121,7 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF10F2-0F11-4ACD-BE1E-F02856DBF6BD}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1438,31 +1455,91 @@
       <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="C9" s="15">
+        <f>AVERAGE(50.05,50,50.09,51.53,50.03)</f>
+        <v>50.339999999999996</v>
+      </c>
+      <c r="D9" s="15">
+        <f>AVERAGE(49.95, 49.94,49.96,50.46,49.72)</f>
+        <v>50.006</v>
+      </c>
+      <c r="E9" s="15">
+        <f>AVERAGE(50.35, 50,50.23,51.09,50.11)</f>
+        <v>50.355999999999995</v>
+      </c>
+      <c r="F9" s="15">
+        <f>AVERAGE(38.03,41.9,40.14,42.96,39.44)</f>
+        <v>40.494</v>
+      </c>
+      <c r="G9" s="15">
+        <f>AVERAGE(43.68,41.76,41.76,42.31,42.31)</f>
+        <v>42.363999999999997</v>
+      </c>
+      <c r="H9" s="15">
+        <f>AVERAGE(58.01,58.73,55.42,55.42,56.6)</f>
+        <v>56.835999999999999</v>
+      </c>
+      <c r="I9" s="15">
+        <f>AVERAGE(43.75,46.47,43.48,47.83,47.28)</f>
+        <v>45.761999999999993</v>
+      </c>
+      <c r="J9" s="15">
+        <f>AVERAGE(34.89,27.98,37.12,42.47,34.24)</f>
+        <v>35.340000000000003</v>
+      </c>
+      <c r="K9" s="15">
+        <f>AVERAGE(54.34,55.81,52.38,55.02,51.86)</f>
+        <v>53.882000000000005</v>
+      </c>
+      <c r="L9" s="15">
+        <f>AVERAGE(60.69,57.24,59.83,60.6,57.23)</f>
+        <v>59.117999999999995</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="C10" s="16">
+        <f>_xlfn.STDEV.S(50.05, 50,50.09,51.53,50.03)</f>
+        <v>0.66603303221386889</v>
+      </c>
+      <c r="D10" s="16">
+        <f>_xlfn.STDEV.S(49.95, 49.94,49.96,50.46,49.72)</f>
+        <v>0.27272696969680194</v>
+      </c>
+      <c r="E10" s="16">
+        <f>_xlfn.STDEV.S(50.35, 50,50.23,51.09,50.11)</f>
+        <v>0.43067389054829119</v>
+      </c>
+      <c r="F10" s="16">
+        <f>_xlfn.STDEV.S(38.03,41.9,40.14,42.96,39.44)</f>
+        <v>1.959943876747495</v>
+      </c>
+      <c r="G10" s="16">
+        <f>_xlfn.STDEV.S(43.68,41.76,41.76,42.31,42.31)</f>
+        <v>0.7853852557821549</v>
+      </c>
+      <c r="H10" s="16">
+        <f>_xlfn.STDEV.S(58.01,58.73,55.42,55.42,56.6)</f>
+        <v>1.5026077332424432</v>
+      </c>
+      <c r="I10" s="16">
+        <f>_xlfn.STDEV.S(43.75,46.47,43.48,47.83,47.28)</f>
+        <v>2.0210071746532723</v>
+      </c>
+      <c r="J10" s="16">
+        <f>_xlfn.STDEV.S(34.89,27.98,37.12,42.47,34.24)</f>
+        <v>5.2342000343891737</v>
+      </c>
+      <c r="K10" s="16">
+        <f>_xlfn.STDEV.S(54.34,55.81,52.38,55.02,51.86)</f>
+        <v>1.7004764038351143</v>
+      </c>
+      <c r="L10" s="16">
+        <f>_xlfn.STDEV.S(60.69,57.24,59.83,60.6,57.23)</f>
+        <v>1.751133918351192</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -2020,7 +2097,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" t="str">
-        <f t="shared" ref="C25:L29" si="8">FIXED(C7,1)</f>
+        <f t="shared" ref="C25:L28" si="8">FIXED(C7,1)</f>
         <v>53.3</v>
       </c>
       <c r="D25" t="str">
@@ -2105,336 +2182,336 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>50.3</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>50.4</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>40.5</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>42.4</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>56.8</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>45.8</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>35.3</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>53.9</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>5.2</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
-        <v>0.0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C29" t="str">
-        <f>FIXED(C14,1)</f>
+        <f t="shared" ref="C29:C34" si="9">FIXED(C14,1)</f>
         <v>88.4</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ref="D29:L29" si="9">FIXED(D14,1)</f>
+        <f t="shared" ref="D29:L29" si="10">FIXED(D14,1)</f>
         <v>28.2</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.7</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51.8</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57.8</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72.6</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65.7</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77.9</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73.5</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>79.8</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C30" t="str">
-        <f>FIXED(C15,1)</f>
+        <f t="shared" si="9"/>
         <v>56.6</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ref="D30:L30" si="10">FIXED(D15,1)</f>
+        <f t="shared" ref="D30:L30" si="11">FIXED(D15,1)</f>
         <v>19.6</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.8</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.4</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>53.9</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71.2</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>65.6</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68.4</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>73.0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78.6</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C31" t="str">
-        <f>FIXED(C16,1)</f>
+        <f t="shared" si="9"/>
         <v>94.1</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:L31" si="11">FIXED(D16,1)</f>
+        <f t="shared" ref="D31:L31" si="12">FIXED(D16,1)</f>
         <v>46.3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.5</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53.9</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58.7</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>69.9</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66.5</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79.1</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>72.0</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79.5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C32" t="str">
-        <f>FIXED(C17,1)</f>
+        <f t="shared" si="9"/>
         <v>2.2</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ref="D32:L32" si="12">FIXED(D17,1)</f>
+        <f t="shared" ref="D32:L32" si="13">FIXED(D17,1)</f>
         <v>3.4</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C33" t="str">
-        <f>FIXED(C18,1)</f>
+        <f t="shared" si="9"/>
         <v>14.7</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33:L33" si="13">FIXED(D18,1)</f>
+        <f t="shared" ref="D33:L33" si="14">FIXED(D18,1)</f>
         <v>5.6</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C34" t="str">
-        <f>FIXED(C19,1)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:L34" si="14">FIXED(D19,1)</f>
+        <f t="shared" ref="D34:L34" si="15">FIXED(D19,1)</f>
         <v>6.0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.2</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -2443,85 +2520,85 @@
         <v>72</v>
       </c>
       <c r="C36" t="b">
-        <f>C3=MAX(C$3,C$4,C$5)</f>
+        <f t="shared" ref="C36:L36" si="16">C3=MAX(C$3,C$4,C$5)</f>
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <f>D3=MAX(D$3,D$4,D$5)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <f>E3=MAX(E$3,E$4,E$5)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <f>F3=MAX(F$3,F$4,F$5)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <f>G3=MAX(G$3,G$4,G$5)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H36" t="b">
-        <f>H3=MAX(H$3,H$4,H$5)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <f>I3=MAX(I$3,I$4,I$5)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <f>J3=MAX(J$3,J$4,J$5)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K36" t="b">
-        <f>K3=MAX(K$3,K$4,K$5)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L36" t="b">
-        <f>L3=MAX(L$3,L$4,L$5)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C37" t="b">
-        <f>C4=MAX(C$3,C$4,C$5)</f>
+        <f t="shared" ref="C37:L37" si="17">C4=MAX(C$3,C$4,C$5)</f>
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <f>D4=MAX(D$3,D$4,D$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <f>E4=MAX(E$3,E$4,E$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <f>F4=MAX(F$3,F$4,F$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <f>G4=MAX(G$3,G$4,G$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" t="b">
-        <f>H4=MAX(H$3,H$4,H$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <f>I4=MAX(I$3,I$4,I$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <f>J4=MAX(J$3,J$4,J$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <f>K4=MAX(K$3,K$4,K$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" t="b">
-        <f>L4=MAX(L$3,L$4,L$5)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2531,123 +2608,123 @@
         <v>0</v>
       </c>
       <c r="D38" t="b">
-        <f t="shared" ref="D38:L38" si="15">AND(NOT(D36),NOT(D37))</f>
+        <f t="shared" ref="D38:L38" si="18">AND(NOT(D36),NOT(D37))</f>
         <v>1</v>
       </c>
       <c r="E38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L38" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C39" t="b">
-        <f>C7=MAX(C$7,C$8,C$9)</f>
+        <f t="shared" ref="C39:L39" si="19">C7=MAX(C$7,C$8,C$9)</f>
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <f>D7=MAX(D$7,D$8,D$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E39" t="b">
-        <f>E7=MAX(E$7,E$8,E$9)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <f>F7=MAX(F$7,F$8,F$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <f>G7=MAX(G$7,G$8,G$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H39" t="b">
-        <f>H7=MAX(H$7,H$8,H$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I39" t="b">
-        <f>I7=MAX(I$7,I$8,I$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J39" t="b">
-        <f>J7=MAX(J$7,J$8,J$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K39" t="b">
-        <f>K7=MAX(K$7,K$8,K$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L39" t="b">
-        <f>L7=MAX(L$7,L$8,L$9)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C40" t="b">
-        <f>C8=MAX(C$7,C$8,C$9)</f>
+        <f t="shared" ref="C40:L40" si="20">C8=MAX(C$7,C$8,C$9)</f>
         <v>0</v>
       </c>
       <c r="D40" t="b">
-        <f>D8=MAX(D$7,D$8,D$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <f>E8=MAX(E$7,E$8,E$9)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <f>F8=MAX(F$7,F$8,F$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G40" t="b">
-        <f>G8=MAX(G$7,G$8,G$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H40" t="b">
-        <f>H8=MAX(H$7,H$8,H$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <f>I8=MAX(I$7,I$8,I$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J40" t="b">
-        <f>J8=MAX(J$7,J$8,J$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <f>K8=MAX(K$7,K$8,K$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L40" t="b">
-        <f>L8=MAX(L$7,L$8,L$9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -2657,39 +2734,39 @@
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <f t="shared" ref="D41" si="16">AND(NOT(D39),NOT(D40))</f>
+        <f t="shared" ref="D41" si="21">AND(NOT(D39),NOT(D40))</f>
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <f t="shared" ref="E41" si="17">AND(NOT(E39),NOT(E40))</f>
+        <f t="shared" ref="E41" si="22">AND(NOT(E39),NOT(E40))</f>
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <f t="shared" ref="F41" si="18">AND(NOT(F39),NOT(F40))</f>
+        <f t="shared" ref="F41" si="23">AND(NOT(F39),NOT(F40))</f>
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <f t="shared" ref="G41" si="19">AND(NOT(G39),NOT(G40))</f>
+        <f t="shared" ref="G41" si="24">AND(NOT(G39),NOT(G40))</f>
         <v>0</v>
       </c>
       <c r="H41" t="b">
-        <f t="shared" ref="H41" si="20">AND(NOT(H39),NOT(H40))</f>
+        <f t="shared" ref="H41" si="25">AND(NOT(H39),NOT(H40))</f>
         <v>0</v>
       </c>
       <c r="I41" t="b">
-        <f t="shared" ref="I41" si="21">AND(NOT(I39),NOT(I40))</f>
+        <f t="shared" ref="I41" si="26">AND(NOT(I39),NOT(I40))</f>
         <v>0</v>
       </c>
       <c r="J41" t="b">
-        <f t="shared" ref="J41" si="22">AND(NOT(J39),NOT(J40))</f>
+        <f t="shared" ref="J41" si="27">AND(NOT(J39),NOT(J40))</f>
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <f t="shared" ref="K41" si="23">AND(NOT(K39),NOT(K40))</f>
+        <f t="shared" ref="K41" si="28">AND(NOT(K39),NOT(K40))</f>
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <f t="shared" ref="L41" si="24">AND(NOT(L39),NOT(L40))</f>
+        <f t="shared" ref="L41" si="29">AND(NOT(L39),NOT(L40))</f>
         <v>0</v>
       </c>
     </row>
@@ -2699,39 +2776,39 @@
         <v>0</v>
       </c>
       <c r="D42" t="b">
-        <f t="shared" ref="D42:L42" si="25">D14=MAX(D$14:D$16)</f>
+        <f t="shared" ref="D42:L42" si="30">D14=MAX(D$14:D$16)</f>
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="L42" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -2741,39 +2818,39 @@
         <v>0</v>
       </c>
       <c r="D43" t="b">
-        <f t="shared" ref="D43:L43" si="26">D15=MAX(D$14:D$16)</f>
+        <f t="shared" ref="D43:L43" si="31">D15=MAX(D$14:D$16)</f>
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="G43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L43" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -2783,39 +2860,39 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <f t="shared" ref="D44:L44" si="27">AND(NOT(D42),NOT(D43))</f>
+        <f t="shared" ref="D44:L44" si="32">AND(NOT(D42),NOT(D43))</f>
         <v>1</v>
       </c>
       <c r="E44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="H44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="J44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L44" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -2828,39 +2905,39 @@
         <v>$\mathbf{50.0}$</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:L46" si="28">IF(D36,"$\mathbf{"&amp;D21&amp;"}$","$"&amp;D21&amp;"$")</f>
+        <f t="shared" ref="D46:L46" si="33">IF(D36,"$\mathbf{"&amp;D21&amp;"}$","$"&amp;D21&amp;"$")</f>
         <v>$50.0$</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$\mathbf{50.0}$</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$37.0$</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$\mathbf{42.0}$</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$52.8$</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$44.3$</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$\mathbf{31.1}$</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$48.7$</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>$\mathbf{56.0}$</v>
       </c>
     </row>
@@ -2870,39 +2947,39 @@
         <v>$\mathbf{50.0}$</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47:L47" si="29">IF(D37,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
+        <f t="shared" ref="D47:L47" si="34">IF(D37,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
         <v>$50.0$</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$49.7$</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$38.0$</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$41.7$</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$55.7$</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$44.0$</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$16.7$</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$45.2$</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>$49.6$</v>
       </c>
     </row>
@@ -2912,39 +2989,39 @@
         <v>$50.0_{0.0}$</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:L48" si="30">IF(D38,"$\mathbf{"&amp;D23&amp;"}","$"&amp;D23)&amp;"_{"&amp;D24&amp;"}$"</f>
+        <f t="shared" ref="D48:L48" si="35">IF(D38,"$\mathbf{"&amp;D23&amp;"}","$"&amp;D23)&amp;"_{"&amp;D24&amp;"}$"</f>
         <v>$\mathbf{50.0}_{0.0}$</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$50.0_{0.1}$</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$\mathbf{39.4}_{2.4}$</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$41.4_{1.7}$</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$\mathbf{56.0}_{3.2}$</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$\mathbf{44.4}_{1.4}$</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$25.2_{4.0}$</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$\mathbf{49.4}_{1.1}$</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>$54.5_{0.8}$</v>
       </c>
     </row>
@@ -2954,39 +3031,39 @@
         <v>$\mathbf{53.3}$</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49:L49" si="31">IF(D39,"$\mathbf{"&amp;D25&amp;"}$","$"&amp;D25&amp;"$")</f>
+        <f t="shared" ref="D49:L49" si="36">IF(D39,"$\mathbf{"&amp;D25&amp;"}$","$"&amp;D25&amp;"$")</f>
         <v>$\mathbf{50.6}$</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$50.2$</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{43.0}$</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{46.1}$</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{61.8}$</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{53.5}$</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{42.1}$</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{58.1}$</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>$\mathbf{64.7}$</v>
       </c>
     </row>
@@ -2996,82 +3073,82 @@
         <v>$50.0$</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:L50" si="32">IF(D40,"$\mathbf{"&amp;D26&amp;"}$","$"&amp;D26&amp;"$")</f>
+        <f t="shared" ref="D50:L50" si="37">IF(D40,"$\mathbf{"&amp;D26&amp;"}$","$"&amp;D26&amp;"$")</f>
         <v>$49.9$</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$\mathbf{51.3}$</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$38.7$</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$43.4$</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$59.0$</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$49.2$</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$28.8$</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$51.1$</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>$57.4$</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C51" t="str">
         <f>IF(C41,"$\mathbf{"&amp;C27&amp;"}","$"&amp;C27)&amp;"_{"&amp;C28&amp;"}$"</f>
-        <v>$0.0_{0.0}$</v>
+        <v>$50.3_{0.7}$</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:L51" si="33">IF(D41,"$\mathbf{"&amp;D27&amp;"}","$"&amp;D27)&amp;"_{"&amp;D28&amp;"}$"</f>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" ref="D51:L51" si="38">IF(D41,"$\mathbf{"&amp;D27&amp;"}","$"&amp;D27)&amp;"_{"&amp;D28&amp;"}$"</f>
+        <v>$50.0_{0.3}$</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$50.4_{0.4}$</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$40.5_{2.0}$</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$42.4_{0.8}$</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$56.8_{1.5}$</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$45.8_{2.0}$</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$35.3_{5.2}$</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$53.9_{1.7}$</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="33"/>
-        <v>$0.0_{0.0}$</v>
+        <f t="shared" si="38"/>
+        <v>$59.1_{1.8}$</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.35">
@@ -3080,123 +3157,123 @@
         <v>$88.4_{2.2}$</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52:L52" si="34">IF(D42,"$\mathbf{"&amp;D29&amp;"}","$"&amp;D29)&amp;"_{"&amp;D32&amp;"}$"</f>
+        <f t="shared" ref="D52:L52" si="39">IF(D42,"$\mathbf{"&amp;D29&amp;"}","$"&amp;D29)&amp;"_{"&amp;D32&amp;"}$"</f>
         <v>$28.2_{3.4}$</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$21.7_{7.1}$</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$51.8_{1.6}$</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$57.8_{1.7}$</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$\mathbf{72.6}_{1.3}$</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$65.7_{1.9}$</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$77.9_{2.5}$</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$\mathbf{73.5}_{2.9}$</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>$\mathbf{79.8}_{0.8}$</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C53" t="str">
-        <f t="shared" ref="C53:L53" si="35">IF(C43,"$\mathbf{"&amp;C30&amp;"}","$"&amp;C30)&amp;"_{"&amp;C33&amp;"}$"</f>
+        <f t="shared" ref="C53:L53" si="40">IF(C43,"$\mathbf{"&amp;C30&amp;"}","$"&amp;C30)&amp;"_{"&amp;C33&amp;"}$"</f>
         <v>$56.6_{14.7}$</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$19.6_{5.6}$</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$13.8_{2.9}$</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$\mathbf{56.4}_{0.8}$</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$53.9_{1.5}$</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$71.2_{1.1}$</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$65.6_{1.7}$</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$68.4_{3.0}$</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$73.0_{3.0}$</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>$78.6_{0.4}$</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C54" t="str">
-        <f t="shared" ref="C54:L54" si="36">IF(C44,"$\mathbf{"&amp;C31&amp;"}","$"&amp;C31)&amp;"_{"&amp;C34&amp;"}$"</f>
+        <f t="shared" ref="C54:L54" si="41">IF(C44,"$\mathbf{"&amp;C31&amp;"}","$"&amp;C31)&amp;"_{"&amp;C34&amp;"}$"</f>
         <v>$\mathbf{94.1}_{3.5}$</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$\mathbf{46.3}_{6.0}$</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$\mathbf{38.5}_{15.2}$</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$53.9_{1.6}$</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$\mathbf{58.7}_{1.2}$</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$69.9_{0.9}$</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$\mathbf{66.5}_{1.7}$</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$\mathbf{79.1}_{1.0}$</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$72.0_{1.8}$</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>$79.5_{0.4}$</v>
       </c>
     </row>
@@ -3534,30 +3611,90 @@
       <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="8">
+        <f>AVERAGE(0.02,0,0.02,0.1,0.01)</f>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <f>AVERAGE(-0.01,-0.02,-0.01,0.05,-0.04)</f>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <f>AVERAGE(0.05,0,0.03,0.06,0.02)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>AVERAGE(0.01,0.13,0.13,0.14,0.12)</f>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="G9" s="8">
+        <f>AVERAGE(0.15,0.12,0.12,0.14,0.14)</f>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <f>AVERAGE(0.26,0.28,0.23,0.23,0.25)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="8">
+        <f>AVERAGE(0.13,0.16,0.14,0.19,0.19)</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J9" s="8">
+        <f>AVERAGE(-0.1,-0.03,-0.13,-0.04,-0.19)</f>
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <f>AVERAGE(0.33,0.34,0.3,0.33,0.3)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L9" s="8">
+        <f>AVERAGE(0.41,0.36,0.4,0.41,0.4)</f>
+        <v>0.39600000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="C10" s="17">
+        <f>_xlfn.STDEV.S(0.02,0,0.02,0.1,0.01)</f>
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="17">
+        <f>_xlfn.STDEV.S(-0.01,-0.02,-0.01,0.05,-0.04)</f>
+        <v>3.3615472627943226E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <f>_xlfn.STDEV.S(0.05,0,0.03,0.06,0.02)</f>
+        <v>2.3874672772626643E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <f>_xlfn.STDEV.S(0.01,0.13,0.13,0.14,0.12)</f>
+        <v>5.4129474410897417E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <f>_xlfn.STDEV.S(0.15,0.12,0.12,0.14,0.14)</f>
+        <v>1.3416407864998741E-2</v>
+      </c>
+      <c r="H10" s="17">
+        <f>_xlfn.STDEV.S(0.26,0.28,0.23,0.23,0.25)</f>
+        <v>2.121320343559643E-2</v>
+      </c>
+      <c r="I10" s="17">
+        <f>_xlfn.STDEV.S(0.13,0.16,0.14,0.19,0.19)</f>
+        <v>2.7748873851023089E-2</v>
+      </c>
+      <c r="J10" s="17">
+        <f>_xlfn.STDEV.S(-0.1,-0.03,-0.13,-0.04,-0.19)</f>
+        <v>6.6105975524153662E-2</v>
+      </c>
+      <c r="K10" s="17">
+        <f>_xlfn.STDEV.S(0.33,0.34,0.3,0.33,0.3)</f>
+        <v>1.8708286933869722E-2</v>
+      </c>
+      <c r="L10" s="17">
+        <f>_xlfn.STDEV.S(0.41,0.36,0.4,0.41,0.4)</f>
+        <v>2.0736441353327719E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
@@ -3829,85 +3966,85 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <f t="shared" ref="C18:L18" si="6">FIXED(C9,2)</f>
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>-0.01</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.11</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.13</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.25</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.16</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>-0.10</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.32</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="6"/>
-        <v>0.00</v>
+        <v>0.40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <f t="shared" ref="C19:L19" si="7">FIXED(C10,2)</f>
-        <v>0.00</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.03</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.07</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="7"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -4112,7 +4249,7 @@
       </c>
       <c r="J25" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <f t="shared" si="12"/>
@@ -4154,7 +4291,7 @@
       </c>
       <c r="J26" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <f t="shared" si="13"/>
@@ -4367,7 +4504,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="18"/>
-        <v>$\mathbf{-0.10}$</v>
+        <v>$-0.10$</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="18"/>
@@ -4381,43 +4518,43 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C33" t="str">
         <f>IF(C26,"$\mathbf{"&amp;C18&amp;"}","$"&amp;C18)&amp;"_{"&amp;C19&amp;"}$"</f>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.03_{0.04}$</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ref="D33:L33" si="19">IF(D26,"$\mathbf{"&amp;D18&amp;"}","$"&amp;D18)&amp;"_{"&amp;D19&amp;"}$"</f>
-        <v>$0.00_{0.00}$</v>
+        <v>$-0.01_{0.03}$</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.03_{0.02}$</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.11_{0.05}$</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.13_{0.01}$</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.25_{0.02}$</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.16_{0.03}$</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$\mathbf{-0.10}_{0.07}$</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.32_{0.02}$</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="19"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.40_{0.02}$</v>
       </c>
     </row>
   </sheetData>
@@ -4649,22 +4786,58 @@
       <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="14">
+        <f>AVERAGE(29.89,32.55,30.19,29.38,29.78)</f>
+        <v>30.357999999999997</v>
+      </c>
+      <c r="D9" s="14">
+        <f>AVERAGE(31.87,32.79,32.18,29.73,30.65)</f>
+        <v>31.443999999999999</v>
+      </c>
+      <c r="E9" s="14">
+        <f>AVERAGE(34.95,37.3,34.5,36.85,35.22)</f>
+        <v>35.763999999999996</v>
+      </c>
+      <c r="F9" s="7">
+        <f>AVERAGE(-0.05,-0.02,-0.05,-0.06, -0.05)</f>
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <f>AVERAGE(-0.02,-0.01,-0.02,-0.06, -0.04)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="H9" s="7">
+        <f>AVERAGE(0.02,0.06,0.02,0.05,0.03)</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="16">
+        <f>_xlfn.STDEV.S(29.89,32.55,30.19,29.38,29.78)</f>
+        <v>1.2592338940800463</v>
+      </c>
+      <c r="D10" s="16">
+        <f>_xlfn.STDEV.S(31.87,32.79,32.18,29.73,30.65)</f>
+        <v>1.2352246759193242</v>
+      </c>
+      <c r="E10" s="16">
+        <f>_xlfn.STDEV.S(34.95,37.3,34.5,36.85,35.22)</f>
+        <v>1.2343945884521683</v>
+      </c>
+      <c r="F10" s="17">
+        <f>_xlfn.STDEV.S(-0.05,-0.02,-0.05,-0.06, -0.05)</f>
+        <v>1.5165750888103135E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <f>_xlfn.STDEV.S(-0.02,-0.01,-0.02,-0.06, -0.04)</f>
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="17">
+        <f>_xlfn.STDEV.S(0.02,0.06,0.02,0.05,0.03)</f>
+        <v>1.8165902124584944E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -4878,53 +5051,53 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C20" t="str">
         <f t="shared" ref="C20:E20" si="12">FIXED(C9,1)</f>
-        <v>0.0</v>
+        <v>30.4</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="12"/>
-        <v>0.0</v>
+        <v>31.4</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="12"/>
-        <v>0.0</v>
+        <v>35.8</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:H20" si="13">FIXED(F9,2)</f>
-        <v>0.00</v>
+        <v>-0.05</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="13"/>
-        <v>0.00</v>
+        <v>-0.03</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="13"/>
-        <v>0.00</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C21" t="str">
         <f t="shared" ref="C21:E21" si="14">FIXED(C10,1)</f>
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="14"/>
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="14"/>
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ref="F21:H21" si="15">FIXED(F10,2)</f>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="15"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="15"/>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -5138,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <f t="shared" ref="D31:H31" si="30">D11=MAX(D$11:D$12)</f>
+        <f t="shared" ref="D31:E31" si="30">D11=MAX(D$11:D$12)</f>
         <v>0</v>
       </c>
       <c r="E31" t="b">
@@ -5161,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <f t="shared" ref="D32:H32" si="31">NOT(D31)</f>
+        <f t="shared" ref="D32:E32" si="31">NOT(D31)</f>
         <v>1</v>
       </c>
       <c r="E32" t="b">
@@ -5314,27 +5487,27 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C39" t="str">
         <f>IF(C30,"$\mathbf{"&amp;C20&amp;"}","$"&amp;C20)&amp;"_{"&amp;C21&amp;"}$"</f>
-        <v>$0.0_{0.0}$</v>
+        <v>$30.4_{1.3}$</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:H39" si="37">IF(D30,"$\mathbf{"&amp;D20&amp;"}","$"&amp;D20)&amp;"_{"&amp;D21&amp;"}$"</f>
-        <v>$0.0_{0.0}$</v>
+        <v>$31.4_{1.2}$</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="37"/>
-        <v>$0.0_{0.0}$</v>
+        <v>$35.8_{1.2}$</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="37"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$-0.05_{0.02}$</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="37"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$-0.03_{0.02}$</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="37"/>
-        <v>$0.00_{0.00}$</v>
+        <v>$0.04_{0.02}$</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -5343,7 +5516,7 @@
         <v>$58.5$</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" ref="D40:H40" si="38">IF(D31,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
+        <f t="shared" ref="D40:E40" si="38">IF(D31,"$\mathbf{"&amp;D22&amp;"}$","$"&amp;D22&amp;"$")</f>
         <v>$48.3$</v>
       </c>
       <c r="E40" t="str">
@@ -5362,7 +5535,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C41" t="str">
-        <f t="shared" ref="C41:H41" si="39">IF(C32,"$\mathbf{"&amp;C23&amp;"}$","$"&amp;C23&amp;"$")</f>
+        <f t="shared" ref="C41:E41" si="39">IF(C32,"$\mathbf{"&amp;C23&amp;"}$","$"&amp;C23&amp;"$")</f>
         <v>$\mathbf{65.1}$</v>
       </c>
       <c r="D41" t="str">
@@ -5629,12 +5802,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5809,15 +5979,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E6712-CF87-4A66-BD83-30D60A0BF6C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025614B4-5B98-4469-AE07-14701B5EB499}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="051aaf90-6e41-44c5-91e1-87583fba0e7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b9670051-61f4-46ca-b7eb-25470a300aac"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5842,18 +6024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025614B4-5B98-4469-AE07-14701B5EB499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E6712-CF87-4A66-BD83-30D60A0BF6C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="051aaf90-6e41-44c5-91e1-87583fba0e7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b9670051-61f4-46ca-b7eb-25470a300aac"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>